--- a/src/main/resources/data/Master - Season 03.xlsx
+++ b/src/main/resources/data/Master - Season 03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041408A6-7F71-4CA9-AA32-9407DDDC3A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5453ED-6141-4C15-BEBF-A8C4F060E5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="367">
   <si>
     <t>Lead</t>
   </si>
@@ -1069,6 +1069,81 @@
   <si>
     <t>MagicMirrorGo8</t>
   </si>
+  <si>
+    <t>Aceboy13</t>
+  </si>
+  <si>
+    <t>Heatran</t>
+  </si>
+  <si>
+    <t>color3</t>
+  </si>
+  <si>
+    <t>RimlTempest0724</t>
+  </si>
+  <si>
+    <t>KaitoHxH1999</t>
+  </si>
+  <si>
+    <t>Kaybuzz</t>
+  </si>
+  <si>
+    <t>77ate99</t>
+  </si>
+  <si>
+    <t>KevinV6</t>
+  </si>
+  <si>
+    <t>yosikei</t>
+  </si>
+  <si>
+    <t>d1231G</t>
+  </si>
+  <si>
+    <t>psyduck089</t>
+  </si>
+  <si>
+    <t>brnkbrinkbrnk</t>
+  </si>
+  <si>
+    <t>mk0219</t>
+  </si>
+  <si>
+    <t>Sakierun0917</t>
+  </si>
+  <si>
+    <t>Jasouille</t>
+  </si>
+  <si>
+    <t>lnfundibulum</t>
+  </si>
+  <si>
+    <t>DanielAragoon</t>
+  </si>
+  <si>
+    <t>yusuk</t>
+  </si>
+  <si>
+    <t>777straightroad</t>
+  </si>
+  <si>
+    <t>SciSensei</t>
+  </si>
+  <si>
+    <t>Nliuer</t>
+  </si>
+  <si>
+    <t>Youthminotaur</t>
+  </si>
+  <si>
+    <t>TSchade13</t>
+  </si>
+  <si>
+    <t>seungwon2009</t>
+  </si>
+  <si>
+    <t>LUC10M</t>
+  </si>
 </sst>
 </file>
 
@@ -1481,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:F931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,88 +4358,192 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="D152" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E152" s="2">
         <v>9</v>
       </c>
+      <c r="F152" s="13" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D153" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E153" s="2">
         <v>9</v>
       </c>
+      <c r="F153" s="13" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="D154" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E154" s="2">
         <v>9</v>
       </c>
+      <c r="F154" s="13" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D155" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E155" s="2">
         <v>9</v>
       </c>
+      <c r="F155" s="13" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D156" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E156" s="2">
         <v>9</v>
       </c>
+      <c r="F156" s="13" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D157" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E157" s="2">
         <v>9</v>
       </c>
+      <c r="F157" s="13" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="D158" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E158" s="2">
         <v>9</v>
       </c>
+      <c r="F158" s="13" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="8"/>
+      <c r="A159" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="D159" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E159" s="2">
         <v>9</v>
       </c>
+      <c r="F159" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
+      <c r="A160" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="D160" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E160" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+      <c r="F160" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="C161" s="8"/>
       <c r="D161" s="9" t="s">
         <v>192</v>
@@ -4372,131 +4551,308 @@
       <c r="E161" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D162" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E162" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D163" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E163" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D164" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E164" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D165" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E165" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D166" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E166" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D167" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E167" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+      <c r="F167" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D168" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E168" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D169" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E169" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D170" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E170" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+      <c r="F170" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="D171" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E171" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D172" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E172" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D173" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E173" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D174" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E174" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D175" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E175" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D176" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E176" s="2">
         <v>9</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.25">
@@ -7949,7 +8305,7 @@
   <dimension ref="A1:S458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8040,15 +8396,15 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>34.285714285714285</v>
+        <v>34.677419354838712</v>
       </c>
       <c r="E2" s="8">
         <f>COUNTIF(History!A21:C120,A2)</f>
@@ -8064,11 +8420,11 @@
       </c>
       <c r="H2" s="2">
         <f>COUNTIF(History!A121:C220,A2)</f>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2">
         <f>COUNTIF(History!A121:A220,A2)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <f>I2*100/H2</f>
@@ -8117,15 +8473,15 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>32.142857142857146</v>
+        <v>31.746031746031747</v>
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(History!A30:C129,A3)</f>
@@ -8141,15 +8497,15 @@
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(History!A130:C229,A3)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2">
         <f>COUNTIF(History!A130:A229,A3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2">
         <f>I3*100/H3</f>
-        <v>14.285714285714286</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="K3" s="2">
         <f>COUNTIF(History!A224:C323,A3)</f>
@@ -8194,15 +8550,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>43.137254901960787</v>
+        <v>37.704918032786885</v>
       </c>
       <c r="E4" s="8">
         <f>COUNTIF(History!A12:C111,A4)</f>
@@ -8218,15 +8574,15 @@
       </c>
       <c r="H4" s="2">
         <f>COUNTIF(History!A113:C212,A4)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
         <f>COUNTIF(History!A113:A212,A4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2">
         <f>I4*100/H4</f>
-        <v>53.333333333333336</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2">
         <f>COUNTIF(History!A231:C330,A4)</f>
@@ -8271,15 +8627,15 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>53.061224489795919</v>
+        <v>52.542372881355931</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(History!A2:C101,A5)</f>
@@ -8295,15 +8651,15 @@
       </c>
       <c r="H5" s="2">
         <f>COUNTIF(History!A102:C201,A5)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2">
         <f>COUNTIF(History!A102:A201,A5)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2">
         <f>I5*100/H5</f>
-        <v>57.89473684210526</v>
+        <v>55.172413793103445</v>
       </c>
       <c r="K5" s="2">
         <f>COUNTIF(History!A207:C306,A5)</f>
@@ -8344,50 +8700,50 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>31.578947368421051</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNTIF(History!A16:C115,A6)</f>
-        <v>24</v>
+        <f>COUNTIF(History!A17:C116,A6)</f>
+        <v>28</v>
       </c>
       <c r="F6" s="8">
-        <f>COUNTIF(History!A16:A115,A6)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A17:A116,A6)</f>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <f>F6*100/E6</f>
-        <v>33.333333333333336</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="H6" s="2">
-        <f>COUNTIF(History!A110:C209,A6)</f>
+        <f>COUNTIF(History!A119:C218,A6)</f>
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <f>COUNTIF(History!A119:A218,A6)</f>
         <v>8</v>
-      </c>
-      <c r="I6" s="2">
-        <f>COUNTIF(History!A110:A209,A6)</f>
-        <v>2</v>
       </c>
       <c r="J6" s="2">
         <f>I6*100/H6</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2">
-        <f>COUNTIF(History!A213:C312,A6)</f>
+        <f>COUNTIF(History!A238:C337,A6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f>COUNTIF(History!A213:A312,A6)</f>
+        <f>COUNTIF(History!A238:A337,A6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="e">
@@ -8395,11 +8751,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="2">
-        <f>COUNTIF(History!A313:C399,A6)</f>
+        <f>COUNTIF(History!A338:C399,A6)</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>COUNTIF(History!A313:A399,A6)</f>
+        <f>COUNTIF(History!A338:A399,A6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="2" t="e">
@@ -8407,11 +8763,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="2">
-        <f>COUNTIF(History!A506:C512,A6)</f>
+        <f>COUNTIF(History!A506:C537,A6)</f>
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <f>COUNTIF(History!A506:A512,A6)</f>
+        <f>COUNTIF(History!A506:A537,A6)</f>
         <v>0</v>
       </c>
       <c r="S6" s="2" t="e">
@@ -8421,50 +8777,50 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>15.789473684210526</v>
+        <v>32.558139534883722</v>
       </c>
       <c r="E7" s="8">
-        <f>COUNTIF(History!A17:C116,A7)</f>
-        <v>28</v>
+        <f>COUNTIF(History!A16:C115,A7)</f>
+        <v>24</v>
       </c>
       <c r="F7" s="8">
-        <f>COUNTIF(History!A17:A116,A7)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A16:A115,A7)</f>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
         <f>F7*100/E7</f>
-        <v>10.714285714285714</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF(History!A119:C218,A7)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A110:C209,A7)</f>
+        <v>13</v>
       </c>
       <c r="I7" s="2">
-        <f>COUNTIF(History!A119:A218,A7)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A110:A209,A7)</f>
+        <v>4</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>30</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A238:C337,A7)</f>
+        <f>COUNTIF(History!A213:C312,A7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A238:A337,A7)</f>
+        <f>COUNTIF(History!A213:A312,A7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="e">
@@ -8472,11 +8828,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A338:C399,A7)</f>
+        <f>COUNTIF(History!A313:C399,A7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A338:A399,A7)</f>
+        <f>COUNTIF(History!A313:A399,A7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="2" t="e">
@@ -8484,11 +8840,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" s="2">
-        <f>COUNTIF(History!A506:C537,A7)</f>
+        <f>COUNTIF(History!A506:C512,A7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <f>COUNTIF(History!A506:A537,A7)</f>
+        <f>COUNTIF(History!A506:A512,A7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="2" t="e">
@@ -8502,15 +8858,15 @@
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>45.161290322580648</v>
+        <v>47.058823529411768</v>
       </c>
       <c r="E8" s="8">
         <f>COUNTIF(History!A8:C107,A8)</f>
@@ -8526,15 +8882,15 @@
       </c>
       <c r="H8" s="2">
         <f>COUNTIF(History!A107:C206,A8)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2">
         <f>COUNTIF(History!A107:A206,A8)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="K8" s="2">
         <f>COUNTIF(History!A203:C302,A8)</f>
@@ -8579,7 +8935,7 @@
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
@@ -8587,11 +8943,11 @@
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>35.714285714285715</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E9" s="8">
         <f>COUNTIF(History!A71:C170,A9)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="8">
         <f>COUNTIF(History!A71:A170,A9)</f>
@@ -8599,7 +8955,7 @@
       </c>
       <c r="G9" s="2">
         <f>F9*100/E9</f>
-        <v>33.333333333333336</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="H9" s="2">
         <f>COUNTIF(History!A171:C270,A9)</f>
@@ -8656,7 +9012,7 @@
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
@@ -8664,11 +9020,11 @@
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>16.666666666666668</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="E10" s="8">
         <f>COUNTIF(History!A108:C207,A10)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8">
         <f>COUNTIF(History!A108:A207,A10)</f>
@@ -8733,7 +9089,7 @@
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
@@ -8757,15 +9113,15 @@
       </c>
       <c r="H11" s="2">
         <f>COUNTIF(History!A160:C259,A11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
         <f>COUNTIF(History!A160:A259,A11)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="e">
+      <c r="J11" s="2">
         <f>I11*100/H11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <f>COUNTIF(History!A251:C350,A11)</f>
@@ -8806,26 +9162,26 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E12" s="8">
-        <f>COUNTIF(History!A69:C168,A12)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A52:C151,A12)</f>
+        <v>3</v>
       </c>
       <c r="F12" s="8">
-        <f>COUNTIF(History!A69:A168,A12)</f>
+        <f>COUNTIF(History!A52:A151,A12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
@@ -8833,23 +9189,23 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF(History!A169:C268,A12)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A152:C251,A12)</f>
+        <v>3</v>
       </c>
       <c r="I12" s="2">
-        <f>COUNTIF(History!A169:A268,A12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="e">
+        <f>COUNTIF(History!A152:A251,A12)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
         <f>I12*100/H12</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K12" s="2">
-        <f>COUNTIF(History!A263:C362,A12)</f>
+        <f>COUNTIF(History!A241:C340,A12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <f>COUNTIF(History!A263:A362,A12)</f>
+        <f>COUNTIF(History!A241:A340,A12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="e">
@@ -8857,11 +9213,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="2">
-        <f>COUNTIF(History!A363:C399,A12)</f>
+        <f>COUNTIF(History!A341:C399,A12)</f>
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f>COUNTIF(History!A363:A399,A12)</f>
+        <f>COUNTIF(History!A341:A399,A12)</f>
         <v>0</v>
       </c>
       <c r="P12" s="2" t="e">
@@ -8869,11 +9225,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q12" s="2">
-        <f>COUNTIF(History!A506:C562,A12)</f>
+        <f>COUNTIF(History!A506:C540,A12)</f>
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <f>COUNTIF(History!A506:A562,A12)</f>
+        <f>COUNTIF(History!A506:A540,A12)</f>
         <v>0</v>
       </c>
       <c r="S12" s="2" t="e">
@@ -8883,26 +9239,26 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A33:C132,A13)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A69:C168,A13)</f>
+        <v>4</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A33:A132,A13)</f>
+        <f>COUNTIF(History!A69:A168,A13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -8910,23 +9266,23 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A133:C232,A13)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A169:C268,A13)</f>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>COUNTIF(History!A133:A232,A13)</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
+        <f>COUNTIF(History!A169:A268,A13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="e">
         <f>I13*100/H13</f>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A223:C322,A13)</f>
+        <f>COUNTIF(History!A263:C362,A13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A223:A322,A13)</f>
+        <f>COUNTIF(History!A263:A362,A13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="e">
@@ -8934,11 +9290,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A323:C399,A13)</f>
+        <f>COUNTIF(History!A363:C399,A13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A323:A399,A13)</f>
+        <f>COUNTIF(History!A363:A399,A13)</f>
         <v>0</v>
       </c>
       <c r="P13" s="2" t="e">
@@ -8946,11 +9302,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q13" s="2">
-        <f>COUNTIF(History!A506:C522,A13)</f>
+        <f>COUNTIF(History!A506:C562,A13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f>COUNTIF(History!A506:A522,A13)</f>
+        <f>COUNTIF(History!A506:A562,A13)</f>
         <v>0</v>
       </c>
       <c r="S13" s="2" t="e">
@@ -8960,7 +9316,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
@@ -8968,18 +9324,18 @@
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E14" s="8">
-        <f>COUNTIF(History!A52:C151,A14)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A33:C132,A14)</f>
+        <v>1</v>
       </c>
       <c r="F14" s="8">
-        <f>COUNTIF(History!A52:A151,A14)</f>
+        <f>COUNTIF(History!A33:A132,A14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -8987,23 +9343,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF(History!A152:C251,A14)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A133:C232,A14)</f>
+        <v>2</v>
       </c>
       <c r="I14" s="2">
-        <f>COUNTIF(History!A152:A251,A14)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="e">
+        <f>COUNTIF(History!A133:A232,A14)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
         <f>I14*100/H14</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2">
-        <f>COUNTIF(History!A241:C340,A14)</f>
+        <f>COUNTIF(History!A223:C322,A14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <f>COUNTIF(History!A241:A340,A14)</f>
+        <f>COUNTIF(History!A223:A322,A14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="e">
@@ -9011,11 +9367,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="2">
-        <f>COUNTIF(History!A341:C399,A14)</f>
+        <f>COUNTIF(History!A323:C399,A14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f>COUNTIF(History!A341:A399,A14)</f>
+        <f>COUNTIF(History!A323:A399,A14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="2" t="e">
@@ -9023,11 +9379,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="2">
-        <f>COUNTIF(History!A506:C540,A14)</f>
+        <f>COUNTIF(History!A506:C522,A14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>COUNTIF(History!A506:A540,A14)</f>
+        <f>COUNTIF(History!A506:A522,A14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="e">
@@ -9037,38 +9393,38 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A24:C123,A15)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A31:C130,A15)</f>
+        <v>2</v>
       </c>
       <c r="F15" s="8">
-        <f>COUNTIF(History!A24:A123,A15)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A31:A130,A15)</f>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <f>F15*100/E15</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A124:C223,A15)</f>
+        <f>COUNTIF(History!A131:C230,A15)</f>
         <v>2</v>
       </c>
       <c r="I15" s="2">
-        <f>COUNTIF(History!A124:A223,A15)</f>
+        <f>COUNTIF(History!A131:A230,A15)</f>
         <v>1</v>
       </c>
       <c r="J15" s="2">
@@ -9076,11 +9432,11 @@
         <v>50</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A217:C316,A15)</f>
+        <f>COUNTIF(History!A277:C376,A15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A217:A316,A15)</f>
+        <f>COUNTIF(History!A277:A376,A15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="e">
@@ -9088,11 +9444,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A317:C399,A15)</f>
+        <f>COUNTIF(History!A377:C399,A15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A317:A399,A15)</f>
+        <f>COUNTIF(History!A377:A399,A15)</f>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="e">
@@ -9100,11 +9456,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A506:C516,A15)</f>
+        <f>COUNTIF(History!A506:C576,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A506:A516,A15)</f>
+        <f>COUNTIF(History!A506:A576,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -9114,7 +9470,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
@@ -9122,42 +9478,42 @@
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A31:C130,A16)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A24:C123,A16)</f>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A31:A130,A16)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A24:A123,A16)</f>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A131:C230,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A124:C223,A16)</f>
+        <v>2</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A131:A230,A16)</f>
+        <f>COUNTIF(History!A124:A223,A16)</f>
         <v>1</v>
       </c>
       <c r="J16" s="2">
         <f>I16*100/H16</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A277:C376,A16)</f>
+        <f>COUNTIF(History!A217:C316,A16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A277:A376,A16)</f>
+        <f>COUNTIF(History!A217:A316,A16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="e">
@@ -9165,11 +9521,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A377:C399,A16)</f>
+        <f>COUNTIF(History!A317:C399,A16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A377:A399,A16)</f>
+        <f>COUNTIF(History!A317:A399,A16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="e">
@@ -9177,11 +9533,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C576,A16)</f>
+        <f>COUNTIF(History!A506:C516,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A576,A16)</f>
+        <f>COUNTIF(History!A506:A516,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -9884,26 +10240,26 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="2" t="e">
+      <c r="D26" s="2">
         <f>C26*100/B26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A13:C112,A26)</f>
+        <f>COUNTIF(History!A43:C142,A26)</f>
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A13:A112,A26)</f>
+        <f>COUNTIF(History!A43:A142,A26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="2" t="e">
@@ -9911,23 +10267,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A118:C217,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A143:C242,A26)</f>
+        <v>1</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A118:A217,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="e">
+        <f>COUNTIF(History!A143:A242,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <f>I26*100/H26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A229:C328,A26)</f>
+        <f>COUNTIF(History!A235:C334,A26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A229:A328,A26)</f>
+        <f>COUNTIF(History!A235:A334,A26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="e">
@@ -9935,11 +10291,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A329:C399,A26)</f>
+        <f>COUNTIF(History!A335:C399,A26)</f>
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A329:A399,A26)</f>
+        <f>COUNTIF(History!A335:A399,A26)</f>
         <v>0</v>
       </c>
       <c r="P26" s="2" t="e">
@@ -9947,11 +10303,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A506:C528,A26)</f>
+        <f>COUNTIF(History!A506:C534,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A506:A528,A26)</f>
+        <f>COUNTIF(History!A506:A534,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -9961,7 +10317,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
@@ -9976,11 +10332,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A11:C110,A27)</f>
+        <f>COUNTIF(History!A13:C112,A27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A11:A110,A27)</f>
+        <f>COUNTIF(History!A13:A112,A27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="2" t="e">
@@ -9988,11 +10344,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A112:C211,A27)</f>
+        <f>COUNTIF(History!A118:C217,A27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A112:A211,A27)</f>
+        <f>COUNTIF(History!A118:A217,A27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2" t="e">
@@ -10000,11 +10356,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A202:C301,A27)</f>
+        <f>COUNTIF(History!A229:C328,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A202:A301,A27)</f>
+        <f>COUNTIF(History!A229:A328,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -10012,33 +10368,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A302:C399,A27)</f>
+        <f>COUNTIF(History!A329:C399,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A302:A399,A27)</f>
+        <f>COUNTIF(History!A329:A399,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
         <f>O27*100/N27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R27" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A27)</f>
-        <v>#REF!</v>
+      <c r="Q27" s="2">
+        <f>COUNTIF(History!A506:C528,A27)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <f>COUNTIF(History!A506:A528,A27)</f>
+        <v>0</v>
       </c>
       <c r="S27" s="2" t="e">
         <f>R27*100/Q27</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
@@ -10053,11 +10409,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A91:C190,A28)</f>
+        <f>COUNTIF(History!A11:C110,A28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A91:A190,A28)</f>
+        <f>COUNTIF(History!A11:A110,A28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="e">
@@ -10065,11 +10421,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A191:C290,A28)</f>
+        <f>COUNTIF(History!A112:C211,A28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A191:A290,A28)</f>
+        <f>COUNTIF(History!A112:A211,A28)</f>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="e">
@@ -10077,11 +10433,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A288:C387,A28)</f>
+        <f>COUNTIF(History!A202:C301,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A288:A387,A28)</f>
+        <f>COUNTIF(History!A202:A301,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -10089,33 +10445,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A388:C399,A28)</f>
+        <f>COUNTIF(History!A302:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A388:A399,A28)</f>
+        <f>COUNTIF(History!A302:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
         <f>O28*100/N28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="2">
-        <f>COUNTIF(History!A506:C587,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="2">
-        <f>COUNTIF(History!A506:A587,A28)</f>
-        <v>0</v>
+      <c r="Q28" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A28)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R28" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A28)</f>
+        <v>#REF!</v>
       </c>
       <c r="S28" s="2" t="e">
         <f>R28*100/Q28</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
@@ -10130,11 +10486,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A72:C171,A29)</f>
+        <f>COUNTIF(History!A91:C190,A29)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A72:A171,A29)</f>
+        <f>COUNTIF(History!A91:A190,A29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="e">
@@ -10142,11 +10498,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A172:C271,A29)</f>
+        <f>COUNTIF(History!A191:C290,A29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A172:A271,A29)</f>
+        <f>COUNTIF(History!A191:A290,A29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="e">
@@ -10154,11 +10510,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A266:C365,A29)</f>
+        <f>COUNTIF(History!A288:C387,A29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A266:A365,A29)</f>
+        <f>COUNTIF(History!A288:A387,A29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="e">
@@ -10166,11 +10522,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A366:C399,A29)</f>
+        <f>COUNTIF(History!A388:C399,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A366:A399,A29)</f>
+        <f>COUNTIF(History!A388:A399,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
@@ -10178,11 +10534,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C565,A29)</f>
+        <f>COUNTIF(History!A506:C587,A29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A565,A29)</f>
+        <f>COUNTIF(History!A506:A587,A29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="e">
@@ -10192,7 +10548,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
@@ -10207,11 +10563,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A138:C237,A30)</f>
+        <f>COUNTIF(History!A72:C171,A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A138:A237,A30)</f>
+        <f>COUNTIF(History!A72:A171,A30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="e">
@@ -10219,11 +10575,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A238:C337,A30)</f>
+        <f>COUNTIF(History!A172:C271,A30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A238:A337,A30)</f>
+        <f>COUNTIF(History!A172:A271,A30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="e">
@@ -10231,11 +10587,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A336:C399,A30)</f>
+        <f>COUNTIF(History!A266:C365,A30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A336:A399,A30)</f>
+        <f>COUNTIF(History!A266:A365,A30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="e">
@@ -10243,11 +10599,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A506:C535,A30)</f>
+        <f>COUNTIF(History!A366:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A506:A535,A30)</f>
+        <f>COUNTIF(History!A366:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
@@ -10255,11 +10611,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="2">
-        <f>COUNTIF(History!A536:C635,A30)</f>
+        <f>COUNTIF(History!A506:C565,A30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>COUNTIF(History!A536:A635,A30)</f>
+        <f>COUNTIF(History!A506:A565,A30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="e">
@@ -10269,7 +10625,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
@@ -10284,11 +10640,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="8">
-        <f>COUNTIF(History!A7:C106,A31)</f>
+        <f>COUNTIF(History!A138:C237,A31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>COUNTIF(History!A7:A106,A31)</f>
+        <f>COUNTIF(History!A138:A237,A31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2" t="e">
@@ -10296,11 +10652,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF(History!A108:C207,A31)</f>
+        <f>COUNTIF(History!A238:C337,A31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIF(History!A108:A207,A31)</f>
+        <f>COUNTIF(History!A238:A337,A31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="e">
@@ -10308,11 +10664,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="2">
-        <f>COUNTIF(History!A205:C304,A31)</f>
+        <f>COUNTIF(History!A336:C399,A31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>COUNTIF(History!A205:A304,A31)</f>
+        <f>COUNTIF(History!A336:A399,A31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="e">
@@ -10320,33 +10676,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="2">
-        <f>COUNTIF(History!A305:C399,A31)</f>
+        <f>COUNTIF(History!A506:C535,A31)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f>COUNTIF(History!A305:A399,A31)</f>
+        <f>COUNTIF(History!A506:A535,A31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="2" t="e">
         <f>O31*100/N31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q31" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R31" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A31)</f>
-        <v>#REF!</v>
+      <c r="Q31" s="2">
+        <f>COUNTIF(History!A536:C635,A31)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <f>COUNTIF(History!A536:A635,A31)</f>
+        <v>0</v>
       </c>
       <c r="S31" s="2" t="e">
         <f>R31*100/Q31</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
@@ -10361,11 +10717,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="8">
-        <f>COUNTIF(History!A79:C178,A32)</f>
+        <f>COUNTIF(History!A7:C106,A32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f>COUNTIF(History!A79:A178,A32)</f>
+        <f>COUNTIF(History!A7:A106,A32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2" t="e">
@@ -10373,11 +10729,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="2">
-        <f>COUNTIF(History!A179:C278,A32)</f>
+        <f>COUNTIF(History!A108:C207,A32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>COUNTIF(History!A179:A278,A32)</f>
+        <f>COUNTIF(History!A108:A207,A32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="e">
@@ -10385,11 +10741,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A274:C373,A32)</f>
+        <f>COUNTIF(History!A205:C304,A32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A274:A373,A32)</f>
+        <f>COUNTIF(History!A205:A304,A32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="e">
@@ -10397,33 +10753,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A374:C399,A32)</f>
+        <f>COUNTIF(History!A305:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A374:A399,A32)</f>
+        <f>COUNTIF(History!A305:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
         <f>O32*100/N32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q32" s="2">
-        <f>COUNTIF(History!A506:C573,A32)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <f>COUNTIF(History!A506:A573,A32)</f>
-        <v>0</v>
+      <c r="Q32" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R32" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A32)</f>
+        <v>#REF!</v>
       </c>
       <c r="S32" s="2" t="e">
         <f>R32*100/Q32</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -10438,11 +10794,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A43:C142,A33)</f>
+        <f>COUNTIF(History!A79:C178,A33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A43:A142,A33)</f>
+        <f>COUNTIF(History!A79:A178,A33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="e">
@@ -10450,11 +10806,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A143:C242,A33)</f>
+        <f>COUNTIF(History!A179:C278,A33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A143:A242,A33)</f>
+        <f>COUNTIF(History!A179:A278,A33)</f>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="e">
@@ -10462,11 +10818,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A235:C334,A33)</f>
+        <f>COUNTIF(History!A274:C373,A33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A235:A334,A33)</f>
+        <f>COUNTIF(History!A274:A373,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="e">
@@ -10474,11 +10830,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A335:C399,A33)</f>
+        <f>COUNTIF(History!A374:C399,A33)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A335:A399,A33)</f>
+        <f>COUNTIF(History!A374:A399,A33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="2" t="e">
@@ -10486,11 +10842,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C534,A33)</f>
+        <f>COUNTIF(History!A506:C573,A33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A534,A33)</f>
+        <f>COUNTIF(History!A506:A573,A33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="e">
@@ -38189,7 +38545,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38208,139 +38564,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>dialga:36</v>
+        <v>dialga:43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>dialga:36,melmetal:18</v>
+        <v>dialga:43,melmetal:20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>dialga:36,melmetal:18,groudon:22</v>
+        <v>dialga:43,melmetal:20,groudon:23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0,machamp:2</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0,machamp:2,mamoswine:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0,machamp:2,mamoswine:0,regice:1</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0,conkeldurr:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0,conkeldurr:0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>dialga:36,melmetal:18,groudon:22,giratina_origin:26,kyogre:12,mewtwo:6,togekiss:14,dragonite:5,rhyperior:2,zekrom:0,metagross:0,snorlax:2,giratina_altered:0,palkia:2,landorus_incarnate:1,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0,conkeldurr:0,gardevoir:0</v>
+        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0,conkeldurr:0,gardevoir:0</v>
       </c>
     </row>
   </sheetData>
@@ -38370,133 +38726,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>dialga:105</v>
+        <v>dialga:124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>dialga:105,melmetal:56</v>
+        <v>dialga:124,melmetal:63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>dialga:105,melmetal:56,groudon:51</v>
+        <v>dialga:124,melmetal:63,groudon:61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4,excadrill:4</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4,excadrill:4,machamp:2</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4,excadrill:4,machamp:2,mamoswine:2</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4,excadrill:4,machamp:2,mamoswine:2,regice:1</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1,garchomp:1</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1,garchomp:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>dialga:105,melmetal:56,groudon:51,giratina_origin:49,kyogre:38,mewtwo:38,togekiss:31,dragonite:14,rhyperior:12,zekrom:10,metagross:6,snorlax:5,giratina_altered:5,palkia:4,landorus_incarnate:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1,garchomp:1,conkeldurr:1</v>
+        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1,garchomp:1,conkeldurr:1</v>
       </c>
     </row>
   </sheetData>
@@ -38510,7 +38866,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38526,133 +38882,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>dialga:69</v>
+        <v>dialga:81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>dialga:69,melmetal:38</v>
+        <v>dialga:81,melmetal:43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>dialga:69,melmetal:38,groudon:29</v>
+        <v>dialga:81,melmetal:43,groudon:38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3,excadrill:4</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3,excadrill:4,machamp:0</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3,excadrill:4,machamp:0,mamoswine:2</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3,excadrill:4,machamp:0,mamoswine:2,regice:0</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0,garchomp:1</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0,garchomp:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>dialga:69,melmetal:38,groudon:29,giratina_origin:23,kyogre:26,mewtwo:32,togekiss:17,dragonite:9,rhyperior:10,zekrom:10,metagross:6,snorlax:3,giratina_altered:5,palkia:2,landorus_incarnate:3,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0,garchomp:1,conkeldurr:1</v>
+        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0,garchomp:1,conkeldurr:1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Master - Season 03.xlsx
+++ b/src/main/resources/data/Master - Season 03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5453ED-6141-4C15-BEBF-A8C4F060E5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6490282-14BA-42CD-852B-ABA616D0895E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="481">
   <si>
     <t>Lead</t>
   </si>
@@ -1121,9 +1121,6 @@
     <t>DanielAragoon</t>
   </si>
   <si>
-    <t>yusuk</t>
-  </si>
-  <si>
     <t>777straightroad</t>
   </si>
   <si>
@@ -1143,6 +1140,351 @@
   </si>
   <si>
     <t>LUC10M</t>
+  </si>
+  <si>
+    <t>Fluffffffy</t>
+  </si>
+  <si>
+    <t>TastyGreggnog</t>
+  </si>
+  <si>
+    <t>SakaNoUeNoKumo</t>
+  </si>
+  <si>
+    <t>ZakiSty1esNPCJ2</t>
+  </si>
+  <si>
+    <t>tabibitaro</t>
+  </si>
+  <si>
+    <t>Jonkathonk</t>
+  </si>
+  <si>
+    <t>kiwifru2</t>
+  </si>
+  <si>
+    <t>TFOA456</t>
+  </si>
+  <si>
+    <t>NewArchaic</t>
+  </si>
+  <si>
+    <t>yuuki1102x</t>
+  </si>
+  <si>
+    <t>Kerock88</t>
+  </si>
+  <si>
+    <t>fuuu1105</t>
+  </si>
+  <si>
+    <t>yusukeka</t>
+  </si>
+  <si>
+    <t>laplace324</t>
+  </si>
+  <si>
+    <t>meru0917</t>
+  </si>
+  <si>
+    <t>BenjaPRO0205</t>
+  </si>
+  <si>
+    <t>DavichoAntonio1</t>
+  </si>
+  <si>
+    <t>Torrhen6</t>
+  </si>
+  <si>
+    <t>HYmm04</t>
+  </si>
+  <si>
+    <t>kiznan</t>
+  </si>
+  <si>
+    <t>hk19960318</t>
+  </si>
+  <si>
+    <t>Shouryuuha</t>
+  </si>
+  <si>
+    <t>Maysara</t>
+  </si>
+  <si>
+    <t>PhenixCaos</t>
+  </si>
+  <si>
+    <t>Ryoga18</t>
+  </si>
+  <si>
+    <t>AlekzGmz</t>
+  </si>
+  <si>
+    <t>MarioMaster420</t>
+  </si>
+  <si>
+    <t>MarkQW</t>
+  </si>
+  <si>
+    <t>Darkrai</t>
+  </si>
+  <si>
+    <t>KingKong</t>
+  </si>
+  <si>
+    <t>PomPomPurin87</t>
+  </si>
+  <si>
+    <t>ashsaigh</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
+  </si>
+  <si>
+    <t>1992Kingkeule</t>
+  </si>
+  <si>
+    <t>CytochromeT</t>
+  </si>
+  <si>
+    <t>TheNamelessKing</t>
+  </si>
+  <si>
+    <t>AnablockBrokul</t>
+  </si>
+  <si>
+    <t>nickharrisfry</t>
+  </si>
+  <si>
+    <t>TJ100000</t>
+  </si>
+  <si>
+    <t>Pipipiotom</t>
+  </si>
+  <si>
+    <t>QuackPower</t>
+  </si>
+  <si>
+    <t>JimZwa</t>
+  </si>
+  <si>
+    <t>man373</t>
+  </si>
+  <si>
+    <t>52TeamNadl</t>
+  </si>
+  <si>
+    <t>Rowlesjoe</t>
+  </si>
+  <si>
+    <t>Danielvedder23</t>
+  </si>
+  <si>
+    <t>SmGhellsing</t>
+  </si>
+  <si>
+    <t>Legenjerry</t>
+  </si>
+  <si>
+    <t>nanai71</t>
+  </si>
+  <si>
+    <t>hima305</t>
+  </si>
+  <si>
+    <t>hinaahinaahinaa</t>
+  </si>
+  <si>
+    <t>ashiskillno</t>
+  </si>
+  <si>
+    <t>CanWeNot</t>
+  </si>
+  <si>
+    <t>Pholic</t>
+  </si>
+  <si>
+    <t>DennnyyyyB</t>
+  </si>
+  <si>
+    <t>Atlhez</t>
+  </si>
+  <si>
+    <t>PsyduckOnTheRun</t>
+  </si>
+  <si>
+    <t>Reshiram</t>
+  </si>
+  <si>
+    <t>GHATEN95</t>
+  </si>
+  <si>
+    <t>Alpakay</t>
+  </si>
+  <si>
+    <t>Rippedsaiyan</t>
+  </si>
+  <si>
+    <t>crobls</t>
+  </si>
+  <si>
+    <t>ConnWhiteWalk</t>
+  </si>
+  <si>
+    <t>Youaretaugeh</t>
+  </si>
+  <si>
+    <t>OgQuintero</t>
+  </si>
+  <si>
+    <t>PIGGY04141990</t>
+  </si>
+  <si>
+    <t>trokis</t>
+  </si>
+  <si>
+    <t>Carrasjr90</t>
+  </si>
+  <si>
+    <t>ReksHotsuya</t>
+  </si>
+  <si>
+    <t>Pepelider21</t>
+  </si>
+  <si>
+    <t>TzDany</t>
+  </si>
+  <si>
+    <t>Tomerh199</t>
+  </si>
+  <si>
+    <t>13JCruel13</t>
+  </si>
+  <si>
+    <t>TommyShelby6</t>
+  </si>
+  <si>
+    <t>DawnAdventurer</t>
+  </si>
+  <si>
+    <t>Alzatos</t>
+  </si>
+  <si>
+    <t>Lionize4</t>
+  </si>
+  <si>
+    <t>HongikPedagogy</t>
+  </si>
+  <si>
+    <t>HAKOOnamATAT</t>
+  </si>
+  <si>
+    <t>FranKDA7</t>
+  </si>
+  <si>
+    <t>Ggkn307</t>
+  </si>
+  <si>
+    <t>codygriffin</t>
+  </si>
+  <si>
+    <t>Swammer13</t>
+  </si>
+  <si>
+    <t>MaxZer0</t>
+  </si>
+  <si>
+    <t>mplo23</t>
+  </si>
+  <si>
+    <t>MerrittFam</t>
+  </si>
+  <si>
+    <t>Mnori25</t>
+  </si>
+  <si>
+    <t>DEKUGORI</t>
+  </si>
+  <si>
+    <t>incozuki</t>
+  </si>
+  <si>
+    <t>TOMTOMMY1216</t>
+  </si>
+  <si>
+    <t>zhunren</t>
+  </si>
+  <si>
+    <t>seeso5</t>
+  </si>
+  <si>
+    <t>yourcalcprof</t>
+  </si>
+  <si>
+    <t>Stuey92</t>
+  </si>
+  <si>
+    <t>JEngels21</t>
+  </si>
+  <si>
+    <t>Kanafy56</t>
+  </si>
+  <si>
+    <t>sleepymeepy</t>
+  </si>
+  <si>
+    <t>almendrasnacho</t>
+  </si>
+  <si>
+    <t>Byzoomi</t>
+  </si>
+  <si>
+    <t>JorgeEdinson14</t>
+  </si>
+  <si>
+    <t>Needaklu</t>
+  </si>
+  <si>
+    <t>stastuffis</t>
+  </si>
+  <si>
+    <t>DJaquez98</t>
+  </si>
+  <si>
+    <t>T40S2K</t>
+  </si>
+  <si>
+    <t>Mi1012Ha406</t>
+  </si>
+  <si>
+    <t>BenMarek</t>
+  </si>
+  <si>
+    <t>TrentSzcz</t>
+  </si>
+  <si>
+    <t>2sharks2</t>
+  </si>
+  <si>
+    <t>DSmo0oth</t>
+  </si>
+  <si>
+    <t>toshint</t>
+  </si>
+  <si>
+    <t>MYKOLY</t>
+  </si>
+  <si>
+    <t>Ruben824</t>
+  </si>
+  <si>
+    <t>sumiyadaisuku</t>
+  </si>
+  <si>
+    <t>Cabanna675</t>
+  </si>
+  <si>
+    <t>Sapiency</t>
   </si>
 </sst>
 </file>
@@ -1556,17 +1898,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:F931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4712,7 +5054,7 @@
         <v>9</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4732,7 +5074,7 @@
         <v>9</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4752,7 +5094,7 @@
         <v>9</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,7 +5114,7 @@
         <v>9</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,7 +5134,7 @@
         <v>9</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4812,7 +5154,7 @@
         <v>9</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4832,7 +5174,7 @@
         <v>9</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,875 +5194,2096 @@
         <v>9</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D177" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E177" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D178" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E178" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D179" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E179" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D180" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E180" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D181" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E181" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D182" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E182" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D183" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E183" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D184" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E184" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D185" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E185" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D186" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E186" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D187" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E187" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D188" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E188" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D189" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E189" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D190" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E190" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D191" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E191" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D192" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E192" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D193" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E193" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D194" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E194" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D195" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E195" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D196" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E196" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="D197" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E197" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D198" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E198" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D199" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E199" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+      <c r="F199" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="D200" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E200" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
+      <c r="F200" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="D201" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E201" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D202" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E202" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="D203" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E203" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D204" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E204" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D205" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E205" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D206" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E206" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D207" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E207" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D208" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E208" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="C209" s="8"/>
+      <c r="F208" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="D209" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E209" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
+      <c r="F209" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D210" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E210" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
+      <c r="F210" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D211" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E211" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
+      <c r="F211" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="D212" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E212" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
+      <c r="F212" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D213" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E213" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
-      <c r="C214" s="8"/>
+      <c r="F213" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="D214" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E214" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="8"/>
+      <c r="F214" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D215" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E215" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D216" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E216" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D217" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E217" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D218" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E218" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D219" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E219" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D220" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E220" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D221" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E221" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="D222" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E222" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D223" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E223" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D224" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E224" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D225" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E225" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D226" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E226" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D227" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E227" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D228" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E228" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="F228" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D229" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E229" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D230" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E230" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D231" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E231" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D232" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E232" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D233" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E233" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="F233" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="D234" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E234" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D235" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E235" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D236" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E236" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
+      <c r="F236" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="D237" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E237" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D238" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E238" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D239" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E239" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D240" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E240" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D241" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E241" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D242" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E242" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D243" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E243" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D244" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E244" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D245" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E245" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D246" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E246" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D247" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E247" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D248" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E248" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D249" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E249" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D250" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E250" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D251" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E251" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D252" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E252" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
+      <c r="F252" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="D253" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E253" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D254" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E254" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D255" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E255" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D256" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E256" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D257" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E257" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D258" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E258" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D259" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E259" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D260" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E260" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
+      <c r="F260" s="13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="D261" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E261" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D262" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E262" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D263" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E263" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D264" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E264" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D265" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E265" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D266" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E266" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D267" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E267" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D268" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E268" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D269" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E269" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D270" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E270" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D271" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E271" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D272" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E272" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D273" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E273" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D274" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E274" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D275" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E275" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="D276" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E276" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D277" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E277" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D278" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E278" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D279" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E279" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D280" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E280" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
+      <c r="F280" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>394</v>
+      </c>
       <c r="C281" s="8"/>
       <c r="D281" s="9" t="s">
         <v>192</v>
@@ -5728,170 +7291,411 @@
       <c r="E281" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D282" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E282" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D283" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E283" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="D284" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E284" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C285" s="8"/>
+      <c r="F284" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="D285" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E285" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D286" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E286" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D287" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E287" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D288" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E288" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D289" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E289" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D290" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E290" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D291" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E291" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D292" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E292" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="D293" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E293" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D294" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E294" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D295" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E295" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="D296" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E296" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D297" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E297" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D298" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E298" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D299" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E299" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="8"/>
+      <c r="F299" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D300" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E300" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D301" s="9" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E301" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D302" s="9" t="s">
         <v>192</v>
       </c>
@@ -5899,7 +7703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D303" s="9" t="s">
         <v>192</v>
       </c>
@@ -5907,7 +7711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D304" s="9" t="s">
         <v>192</v>
       </c>
@@ -8292,7 +10096,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A33:A42 A22:B32 A1:A21 B1:C20 B34:B41 A43:B72 A73 A74:B141 A142 A143:B1048576 C21:C1048576</xm:sqref>
+          <xm:sqref>A33:A42 A22:B32 A1:A21 B1:C20 B34:B41 A43:B72 A73 A74:B141 A142:A245 A248:A274 B143:B274 C21:C1048576 A275:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8305,7 +10109,7 @@
   <dimension ref="A1:S458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8396,15 +10200,15 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>34.677419354838712</v>
+        <v>30.28846153846154</v>
       </c>
       <c r="E2" s="8">
         <f>COUNTIF(History!A21:C120,A2)</f>
@@ -8420,27 +10224,27 @@
       </c>
       <c r="H2" s="2">
         <f>COUNTIF(History!A121:C220,A2)</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2">
         <f>COUNTIF(History!A121:A220,A2)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2">
         <f>I2*100/H2</f>
-        <v>36.842105263157897</v>
+        <v>32.352941176470587</v>
       </c>
       <c r="K2" s="2">
         <f>COUNTIF(History!A260:C359,A2)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2">
         <f>COUNTIF(History!A260:A359,A2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="e">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2">
         <f>L2*100/K2</f>
-        <v>#DIV/0!</v>
+        <v>25.925925925925927</v>
       </c>
       <c r="N2" s="2">
         <f>COUNTIF(History!A360:C399,A2)</f>
@@ -8473,15 +10277,15 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>31.746031746031747</v>
+        <v>32.478632478632477</v>
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(History!A30:C129,A3)</f>
@@ -8497,27 +10301,27 @@
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(History!A130:C229,A3)</f>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2">
         <f>COUNTIF(History!A130:A229,A3)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2">
         <f>I3*100/H3</f>
-        <v>21.428571428571427</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2">
         <f>COUNTIF(History!A224:C323,A3)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2">
         <f>COUNTIF(History!A224:A323,A3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="e">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2">
         <f>L3*100/K3</f>
-        <v>#DIV/0!</v>
+        <v>36.363636363636367</v>
       </c>
       <c r="N3" s="2">
         <f>COUNTIF(History!A324:C399,A3)</f>
@@ -8550,15 +10354,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>37.704918032786885</v>
+        <v>41.964285714285715</v>
       </c>
       <c r="E4" s="8">
         <f>COUNTIF(History!A12:C111,A4)</f>
@@ -8574,27 +10378,27 @@
       </c>
       <c r="H4" s="2">
         <f>COUNTIF(History!A113:C212,A4)</f>
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2">
         <f>COUNTIF(History!A113:A212,A4)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2">
         <f>I4*100/H4</f>
-        <v>36</v>
+        <v>35.897435897435898</v>
       </c>
       <c r="K4" s="2">
         <f>COUNTIF(History!A231:C330,A4)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <f>COUNTIF(History!A231:A330,A4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="e">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2">
         <f>L4*100/K4</f>
-        <v>#DIV/0!</v>
+        <v>44.827586206896555</v>
       </c>
       <c r="N4" s="2">
         <f>COUNTIF(History!A331:C399,A4)</f>
@@ -8627,15 +10431,15 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>52.542372881355931</v>
+        <v>56.842105263157897</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(History!A2:C101,A5)</f>
@@ -8651,27 +10455,27 @@
       </c>
       <c r="H5" s="2">
         <f>COUNTIF(History!A102:C201,A5)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2">
         <f>COUNTIF(History!A102:A201,A5)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2">
         <f>I5*100/H5</f>
-        <v>55.172413793103445</v>
+        <v>63.888888888888886</v>
       </c>
       <c r="K5" s="2">
         <f>COUNTIF(History!A207:C306,A5)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <f>COUNTIF(History!A207:A306,A5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2">
         <f>L5*100/K5</f>
-        <v>#DIV/0!</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="N5" s="2">
         <f>COUNTIF(History!A307:C399,A5)</f>
@@ -8704,15 +10508,15 @@
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>22.916666666666668</v>
+        <v>18.478260869565219</v>
       </c>
       <c r="E6" s="8">
         <f>COUNTIF(History!A17:C116,A6)</f>
@@ -8728,27 +10532,27 @@
       </c>
       <c r="H6" s="2">
         <f>COUNTIF(History!A119:C218,A6)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2">
         <f>COUNTIF(History!A119:A218,A6)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
         <f>I6*100/H6</f>
-        <v>40</v>
+        <v>30.555555555555557</v>
       </c>
       <c r="K6" s="2">
         <f>COUNTIF(History!A238:C337,A6)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <f>COUNTIF(History!A238:A337,A6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
         <f>L6*100/K6</f>
-        <v>#DIV/0!</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="N6" s="2">
         <f>COUNTIF(History!A338:C399,A6)</f>
@@ -8781,15 +10585,15 @@
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>32.558139534883722</v>
+        <v>31.25</v>
       </c>
       <c r="E7" s="8">
         <f>COUNTIF(History!A16:C115,A7)</f>
@@ -8805,27 +10609,27 @@
       </c>
       <c r="H7" s="2">
         <f>COUNTIF(History!A110:C209,A7)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2">
         <f>COUNTIF(History!A110:A209,A7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>30.76923076923077</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="K7" s="2">
         <f>COUNTIF(History!A213:C312,A7)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L7" s="2">
         <f>COUNTIF(History!A213:A312,A7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="e">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
         <f>L7*100/K7</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N7" s="2">
         <f>COUNTIF(History!A313:C399,A7)</f>
@@ -8858,15 +10662,15 @@
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>47.058823529411768</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="E8" s="8">
         <f>COUNTIF(History!A8:C107,A8)</f>
@@ -8882,27 +10686,27 @@
       </c>
       <c r="H8" s="2">
         <f>COUNTIF(History!A107:C206,A8)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2">
         <f>COUNTIF(History!A107:A206,A8)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>62.5</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="K8" s="2">
         <f>COUNTIF(History!A203:C302,A8)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L8" s="2">
         <f>COUNTIF(History!A203:A302,A8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <v>7</v>
+      </c>
+      <c r="M8" s="2">
         <f>L8*100/K8</f>
-        <v>#DIV/0!</v>
+        <v>41.176470588235297</v>
       </c>
       <c r="N8" s="2">
         <f>COUNTIF(History!A303:C399,A8)</f>
@@ -8935,15 +10739,15 @@
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>33.333333333333336</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="E9" s="8">
         <f>COUNTIF(History!A71:C170,A9)</f>
@@ -8959,27 +10763,27 @@
       </c>
       <c r="H9" s="2">
         <f>COUNTIF(History!A171:C270,A9)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="2">
         <f>COUNTIF(History!A171:A270,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
         <f>I9*100/H9</f>
-        <v>#DIV/0!</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="K9" s="2">
         <f>COUNTIF(History!A265:C364,A9)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L9" s="2">
         <f>COUNTIF(History!A265:A364,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
         <f>L9*100/K9</f>
-        <v>#DIV/0!</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
         <f>COUNTIF(History!A365:C399,A9)</f>
@@ -9012,19 +10816,19 @@
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>13.333333333333334</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="E10" s="8">
         <f>COUNTIF(History!A108:C207,A10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="8">
         <f>COUNTIF(History!A108:A207,A10)</f>
@@ -9036,15 +10840,15 @@
       </c>
       <c r="H10" s="2">
         <f>COUNTIF(History!A208:C307,A10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2">
         <f>COUNTIF(History!A208:A307,A10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
         <f>I10*100/H10</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K10" s="2">
         <f>COUNTIF(History!A306:C399,A10)</f>
@@ -9085,26 +10889,26 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>0</v>
+        <v>38.888888888888886</v>
       </c>
       <c r="E11" s="8">
-        <f>COUNTIF(History!A60:C159,A11)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A52:C151,A11)</f>
+        <v>3</v>
       </c>
       <c r="F11" s="8">
-        <f>COUNTIF(History!A60:A159,A11)</f>
+        <f>COUNTIF(History!A52:A151,A11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
@@ -9112,35 +10916,35 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f>COUNTIF(History!A160:C259,A11)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A152:C251,A11)</f>
+        <v>8</v>
       </c>
       <c r="I11" s="2">
-        <f>COUNTIF(History!A160:A259,A11)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A152:A251,A11)</f>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <f>I11*100/H11</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
-        <f>COUNTIF(History!A251:C350,A11)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A241:C340,A11)</f>
+        <v>5</v>
       </c>
       <c r="L11" s="2">
-        <f>COUNTIF(History!A251:A350,A11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="e">
+        <f>COUNTIF(History!A241:A340,A11)</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
         <f>L11*100/K11</f>
-        <v>#DIV/0!</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2">
-        <f>COUNTIF(History!A351:C399,A11)</f>
+        <f>COUNTIF(History!A341:C399,A11)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>COUNTIF(History!A351:A399,A11)</f>
+        <f>COUNTIF(History!A341:A399,A11)</f>
         <v>0</v>
       </c>
       <c r="P11" s="2" t="e">
@@ -9148,11 +10952,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q11" s="2">
-        <f>COUNTIF(History!A506:C550,A11)</f>
+        <f>COUNTIF(History!A506:C540,A11)</f>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f>COUNTIF(History!A506:A550,A11)</f>
+        <f>COUNTIF(History!A506:A540,A11)</f>
         <v>0</v>
       </c>
       <c r="S11" s="2" t="e">
@@ -9162,11 +10966,11 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
@@ -9174,14 +10978,14 @@
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>12.5</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="E12" s="8">
-        <f>COUNTIF(History!A52:C151,A12)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A60:C159,A12)</f>
+        <v>6</v>
       </c>
       <c r="F12" s="8">
-        <f>COUNTIF(History!A52:A151,A12)</f>
+        <f>COUNTIF(History!A60:A159,A12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
@@ -9189,35 +10993,35 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF(History!A152:C251,A12)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A160:C259,A12)</f>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f>COUNTIF(History!A152:A251,A12)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A160:A259,A12)</f>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <f>I12*100/H12</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f>COUNTIF(History!A241:C340,A12)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A251:C350,A12)</f>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
-        <f>COUNTIF(History!A241:A340,A12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="e">
+        <f>COUNTIF(History!A251:A350,A12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
         <f>L12*100/K12</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2">
-        <f>COUNTIF(History!A341:C399,A12)</f>
+        <f>COUNTIF(History!A351:C399,A12)</f>
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f>COUNTIF(History!A341:A399,A12)</f>
+        <f>COUNTIF(History!A351:A399,A12)</f>
         <v>0</v>
       </c>
       <c r="P12" s="2" t="e">
@@ -9225,11 +11029,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q12" s="2">
-        <f>COUNTIF(History!A506:C540,A12)</f>
+        <f>COUNTIF(History!A506:C550,A12)</f>
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <f>COUNTIF(History!A506:A540,A12)</f>
+        <f>COUNTIF(History!A506:A550,A12)</f>
         <v>0</v>
       </c>
       <c r="S12" s="2" t="e">
@@ -9243,7 +11047,7 @@
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
@@ -9267,27 +11071,27 @@
       </c>
       <c r="H13" s="2">
         <f>COUNTIF(History!A169:C268,A13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2">
         <f>COUNTIF(History!A169:A268,A13)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="e">
+      <c r="J13" s="2">
         <f>I13*100/H13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <f>COUNTIF(History!A263:C362,A13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2">
         <f>COUNTIF(History!A263:A362,A13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="2" t="e">
+      <c r="M13" s="2">
         <f>L13*100/K13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <f>COUNTIF(History!A363:C399,A13)</f>
@@ -9316,26 +11120,26 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
         <v>40</v>
       </c>
       <c r="E14" s="8">
-        <f>COUNTIF(History!A33:C132,A14)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A31:C130,A14)</f>
+        <v>2</v>
       </c>
       <c r="F14" s="8">
-        <f>COUNTIF(History!A33:A132,A14)</f>
+        <f>COUNTIF(History!A31:A130,A14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -9343,23 +11147,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF(History!A133:C232,A14)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A131:C230,A14)</f>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
-        <f>COUNTIF(History!A133:A232,A14)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A131:A230,A14)</f>
+        <v>4</v>
       </c>
       <c r="J14" s="2">
         <f>I14*100/H14</f>
-        <v>50</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="K14" s="2">
-        <f>COUNTIF(History!A223:C322,A14)</f>
+        <f>COUNTIF(History!A277:C376,A14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <f>COUNTIF(History!A223:A322,A14)</f>
+        <f>COUNTIF(History!A277:A376,A14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="e">
@@ -9367,11 +11171,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="2">
-        <f>COUNTIF(History!A323:C399,A14)</f>
+        <f>COUNTIF(History!A377:C399,A14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f>COUNTIF(History!A323:A399,A14)</f>
+        <f>COUNTIF(History!A377:A399,A14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="2" t="e">
@@ -9379,11 +11183,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="2">
-        <f>COUNTIF(History!A506:C522,A14)</f>
+        <f>COUNTIF(History!A506:C576,A14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>COUNTIF(History!A506:A522,A14)</f>
+        <f>COUNTIF(History!A506:A576,A14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="e">
@@ -9393,26 +11197,26 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>20</v>
+        <v>37.5</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A31:C130,A15)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A33:C132,A15)</f>
+        <v>1</v>
       </c>
       <c r="F15" s="8">
-        <f>COUNTIF(History!A31:A130,A15)</f>
+        <f>COUNTIF(History!A33:A132,A15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
@@ -9420,11 +11224,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A131:C230,A15)</f>
+        <f>COUNTIF(History!A133:C232,A15)</f>
         <v>2</v>
       </c>
       <c r="I15" s="2">
-        <f>COUNTIF(History!A131:A230,A15)</f>
+        <f>COUNTIF(History!A133:A232,A15)</f>
         <v>1</v>
       </c>
       <c r="J15" s="2">
@@ -9432,23 +11236,23 @@
         <v>50</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A277:C376,A15)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A223:C322,A15)</f>
+        <v>3</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A277:A376,A15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="e">
+        <f>COUNTIF(History!A223:A322,A15)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
         <f>L15*100/K15</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A377:C399,A15)</f>
+        <f>COUNTIF(History!A323:C399,A15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A377:A399,A15)</f>
+        <f>COUNTIF(History!A323:A399,A15)</f>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="e">
@@ -9456,11 +11260,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A506:C576,A15)</f>
+        <f>COUNTIF(History!A506:C522,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A506:A576,A15)</f>
+        <f>COUNTIF(History!A506:A522,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -9470,62 +11274,62 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A24:C123,A16)</f>
+        <f>COUNTIF(History!A23:C122,A16)</f>
         <v>1</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A24:A123,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A23:A122,A16)</f>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A124:C223,A16)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A123:C222,A16)</f>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A124:A223,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A123:A222,A16)</f>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <f>I16*100/H16</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A217:C316,A16)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A211:C310,A16)</f>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A217:A316,A16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="e">
+        <f>COUNTIF(History!A211:A310,A16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <f>L16*100/K16</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A317:C399,A16)</f>
+        <f>COUNTIF(History!A311:C399,A16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A317:A399,A16)</f>
+        <f>COUNTIF(History!A311:A399,A16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="e">
@@ -9533,11 +11337,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C516,A16)</f>
+        <f>COUNTIF(History!A506:C510,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A516,A16)</f>
+        <f>COUNTIF(History!A506:A510,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -9547,11 +11351,11 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
@@ -9562,11 +11366,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <f>COUNTIF(History!A23:C122,A17)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A136:C235,A17)</f>
+        <v>3</v>
       </c>
       <c r="F17" s="8">
-        <f>COUNTIF(History!A23:A122,A17)</f>
+        <f>COUNTIF(History!A136:A235,A17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
@@ -9574,11 +11378,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF(History!A123:C222,A17)</f>
+        <f>COUNTIF(History!A236:C335,A17)</f>
         <v>2</v>
       </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A123:A222,A17)</f>
+        <f>COUNTIF(History!A236:A335,A17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -9586,11 +11390,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A211:C310,A17)</f>
+        <f>COUNTIF(History!A334:C399,A17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A211:A310,A17)</f>
+        <f>COUNTIF(History!A334:A399,A17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="e">
@@ -9598,11 +11402,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A311:C399,A17)</f>
+        <f>COUNTIF(History!A506:C533,A17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A311:A399,A17)</f>
+        <f>COUNTIF(History!A506:A533,A17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="2" t="e">
@@ -9610,11 +11414,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C510,A17)</f>
+        <f>COUNTIF(History!A534:C633,A17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A510,A17)</f>
+        <f>COUNTIF(History!A534:A633,A17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="e">
@@ -9624,11 +11428,11 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
@@ -9636,38 +11440,38 @@
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
+        <f>COUNTIF(History!A24:C123,A18)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <f>COUNTIF(History!A24:A123,A18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f>F18*100/E18</f>
         <v>100</v>
       </c>
-      <c r="E18" s="8">
-        <f>COUNTIF(History!A113:C212,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <f>COUNTIF(History!A113:A212,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="e">
-        <f>F18*100/E18</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="H18" s="2">
-        <f>COUNTIF(History!A213:C312,A18)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A124:C223,A18)</f>
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <f>COUNTIF(History!A213:A312,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="e">
+        <f>COUNTIF(History!A124:A223,A18)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
         <f>I18*100/H18</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="K18" s="2">
-        <f>COUNTIF(History!A311:C399,A18)</f>
+        <f>COUNTIF(History!A217:C316,A18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f>COUNTIF(History!A311:A399,A18)</f>
+        <f>COUNTIF(History!A217:A316,A18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="e">
@@ -9675,11 +11479,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="2">
-        <f>COUNTIF(History!A506:C510,A18)</f>
+        <f>COUNTIF(History!A317:C399,A18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f>COUNTIF(History!A506:A510,A18)</f>
+        <f>COUNTIF(History!A317:A399,A18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="e">
@@ -9687,11 +11491,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="2">
-        <f>COUNTIF(History!A511:C610,A18)</f>
+        <f>COUNTIF(History!A506:C516,A18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>COUNTIF(History!A511:A610,A18)</f>
+        <f>COUNTIF(History!A506:A516,A18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="2" t="e">
@@ -9701,38 +11505,38 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <f>C19*100/B19</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E19" s="8">
-        <f>COUNTIF(History!A6:C105,A19)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A15:C114,A19)</f>
+        <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>COUNTIF(History!A6:A105,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+        <f>COUNTIF(History!A15:A114,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="e">
         <f>F19*100/E19</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="2">
-        <f>COUNTIF(History!A105:C204,A19)</f>
+        <f>COUNTIF(History!A114:C213,A19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>COUNTIF(History!A105:A204,A19)</f>
+        <f>COUNTIF(History!A114:A213,A19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="2" t="e">
@@ -9740,23 +11544,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="2">
-        <f>COUNTIF(History!A208:C307,A19)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A210:C309,A19)</f>
+        <v>2</v>
       </c>
       <c r="L19" s="2">
-        <f>COUNTIF(History!A208:A307,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="e">
+        <f>COUNTIF(History!A210:A309,A19)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
         <f>L19*100/K19</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="N19" s="2">
-        <f>COUNTIF(History!A308:C399,A19)</f>
+        <f>COUNTIF(History!A310:C399,A19)</f>
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f>COUNTIF(History!A308:A399,A19)</f>
+        <f>COUNTIF(History!A310:A399,A19)</f>
         <v>0</v>
       </c>
       <c r="P19" s="2" t="e">
@@ -9764,11 +11568,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="2">
-        <f>COUNTIF(History!A506:C507,A19)</f>
+        <f>COUNTIF(History!A506:C509,A19)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>COUNTIF(History!A506:A507,A19)</f>
+        <f>COUNTIF(History!A506:A509,A19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="2" t="e">
@@ -9778,38 +11582,38 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
         <v>100</v>
       </c>
       <c r="E20" s="8">
-        <f>COUNTIF(History!A4:C103,A20)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A113:C212,A20)</f>
+        <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>COUNTIF(History!A4:A103,A20)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
+        <f>COUNTIF(History!A113:A212,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="e">
         <f>F20*100/E20</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H20" s="2">
-        <f>COUNTIF(History!A103:C202,A20)</f>
+        <f>COUNTIF(History!A213:C312,A20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>COUNTIF(History!A103:A202,A20)</f>
+        <f>COUNTIF(History!A213:A312,A20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="2" t="e">
@@ -9817,11 +11621,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="2">
-        <f>COUNTIF(History!A225:C324,A20)</f>
+        <f>COUNTIF(History!A311:C399,A20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f>COUNTIF(History!A225:A324,A20)</f>
+        <f>COUNTIF(History!A311:A399,A20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="e">
@@ -9829,11 +11633,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="2">
-        <f>COUNTIF(History!A325:C399,A20)</f>
+        <f>COUNTIF(History!A506:C510,A20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f>COUNTIF(History!A325:A399,A20)</f>
+        <f>COUNTIF(History!A506:A510,A20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="e">
@@ -9841,11 +11645,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="2">
-        <f>COUNTIF(History!A506:C524,A20)</f>
+        <f>COUNTIF(History!A511:C610,A20)</f>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>COUNTIF(History!A506:A524,A20)</f>
+        <f>COUNTIF(History!A511:A610,A20)</f>
         <v>0</v>
       </c>
       <c r="S20" s="2" t="e">
@@ -9859,11 +11663,11 @@
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
         <f>C21*100/B21</f>
@@ -9883,15 +11687,15 @@
       </c>
       <c r="H21" s="2">
         <f>COUNTIF(History!A210:C309,A21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
         <f>COUNTIF(History!A210:A309,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
         <f>I21*100/H21</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="K21" s="2">
         <f>COUNTIF(History!A308:C399,A21)</f>
@@ -9932,11 +11736,11 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
@@ -9947,23 +11751,23 @@
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A15:C114,A22)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A6:C105,A22)</f>
+        <v>1</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A15:A114,A22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="e">
+        <f>COUNTIF(History!A6:A105,A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <f>F22*100/E22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A114:C213,A22)</f>
+        <f>COUNTIF(History!A105:C204,A22)</f>
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A114:A213,A22)</f>
+        <f>COUNTIF(History!A105:A204,A22)</f>
         <v>0</v>
       </c>
       <c r="J22" s="2" t="e">
@@ -9971,11 +11775,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A210:C309,A22)</f>
+        <f>COUNTIF(History!A208:C307,A22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A210:A309,A22)</f>
+        <f>COUNTIF(History!A208:A307,A22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="e">
@@ -9983,11 +11787,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A310:C399,A22)</f>
+        <f>COUNTIF(History!A308:C399,A22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A310:A399,A22)</f>
+        <f>COUNTIF(History!A308:A399,A22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="2" t="e">
@@ -9995,11 +11799,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="2">
-        <f>COUNTIF(History!A506:C509,A22)</f>
+        <f>COUNTIF(History!A506:C507,A22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>COUNTIF(History!A506:A509,A22)</f>
+        <f>COUNTIF(History!A506:A507,A22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
@@ -10009,11 +11813,11 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
@@ -10024,47 +11828,47 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A26:C125,A23)</f>
+        <f>COUNTIF(History!A43:C142,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f>COUNTIF(History!A43:A142,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="e">
+        <f>F23*100/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="2">
+        <f>COUNTIF(History!A143:C242,A23)</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <f>COUNTIF(History!A143:A242,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f>I23*100/H23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <f>COUNTIF(History!A235:C334,A23)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="8">
-        <f>COUNTIF(History!A26:A125,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f>F23*100/E23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f>COUNTIF(History!A126:C225,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <f>COUNTIF(History!A126:A225,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="e">
-        <f>I23*100/H23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="2">
-        <f>COUNTIF(History!A218:C317,A23)</f>
-        <v>0</v>
-      </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A218:A317,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="e">
+        <f>COUNTIF(History!A235:A334,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <f>L23*100/K23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A318:C399,A23)</f>
+        <f>COUNTIF(History!A335:C399,A23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A318:A399,A23)</f>
+        <f>COUNTIF(History!A335:A399,A23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="e">
@@ -10072,11 +11876,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A506:C517,A23)</f>
+        <f>COUNTIF(History!A506:C534,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A506:A517,A23)</f>
+        <f>COUNTIF(History!A506:A534,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -10086,11 +11890,11 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
@@ -10101,23 +11905,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A3:C102,A24)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A13:C112,A24)</f>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>COUNTIF(History!A3:A102,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+        <f>COUNTIF(History!A13:A112,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="e">
         <f>F24*100/E24</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A104:C203,A24)</f>
+        <f>COUNTIF(History!A118:C217,A24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A104:A203,A24)</f>
+        <f>COUNTIF(History!A118:A217,A24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2" t="e">
@@ -10125,45 +11929,45 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A206:C305,A24)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A229:C328,A24)</f>
+        <v>2</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A206:A305,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="e">
+        <f>COUNTIF(History!A229:A328,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
         <f>L24*100/K24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A306:C399,A24)</f>
+        <f>COUNTIF(History!A329:C399,A24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A306:A399,A24)</f>
+        <f>COUNTIF(History!A329:A399,A24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="e">
         <f>O24*100/N24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R24" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A24)</f>
-        <v>#REF!</v>
+      <c r="Q24" s="2">
+        <f>COUNTIF(History!A506:C528,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <f>COUNTIF(History!A506:A528,A24)</f>
+        <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
         <f>R24*100/Q24</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
@@ -10171,30 +11975,30 @@
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
         <f>C25*100/B25</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIF(History!A195:C294,A25)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A4:C103,A25)</f>
+        <v>1</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIF(History!A195:A294,A25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="e">
+        <f>COUNTIF(History!A4:A103,A25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
         <f>F25*100/E25</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF(History!A295:C394,A25)</f>
+        <f>COUNTIF(History!A103:C202,A25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>COUNTIF(History!A295:A394,A25)</f>
+        <f>COUNTIF(History!A103:A202,A25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="e">
@@ -10202,11 +12006,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="2">
-        <f>COUNTIF(History!A395:C399,A25)</f>
+        <f>COUNTIF(History!A225:C324,A25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f>COUNTIF(History!A395:A399,A25)</f>
+        <f>COUNTIF(History!A225:A324,A25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="e">
@@ -10214,11 +12018,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2">
-        <f>COUNTIF(History!A506:C594,A25)</f>
+        <f>COUNTIF(History!A325:C399,A25)</f>
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f>COUNTIF(History!A506:A594,A25)</f>
+        <f>COUNTIF(History!A325:A399,A25)</f>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="e">
@@ -10226,11 +12030,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2">
-        <f>COUNTIF(History!A595:C694,A25)</f>
+        <f>COUNTIF(History!A506:C524,A25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>COUNTIF(History!A595:A694,A25)</f>
+        <f>COUNTIF(History!A506:A524,A25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="e">
@@ -10240,7 +12044,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
@@ -10255,35 +12059,35 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A43:C142,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A26:C125,A26)</f>
+        <v>1</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A43:A142,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="e">
+        <f>COUNTIF(History!A26:A125,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
         <f>F26*100/E26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A143:C242,A26)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A126:C225,A26)</f>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A143:A242,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
+        <f>COUNTIF(History!A126:A225,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="e">
         <f>I26*100/H26</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A235:C334,A26)</f>
+        <f>COUNTIF(History!A218:C317,A26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A235:A334,A26)</f>
+        <f>COUNTIF(History!A218:A317,A26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="e">
@@ -10291,11 +12095,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A335:C399,A26)</f>
+        <f>COUNTIF(History!A318:C399,A26)</f>
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A335:A399,A26)</f>
+        <f>COUNTIF(History!A318:A399,A26)</f>
         <v>0</v>
       </c>
       <c r="P26" s="2" t="e">
@@ -10303,11 +12107,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A506:C534,A26)</f>
+        <f>COUNTIF(History!A506:C517,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A506:A534,A26)</f>
+        <f>COUNTIF(History!A506:A517,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -10317,38 +12121,38 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="e">
+      <c r="D27" s="2">
         <f>C27*100/B27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A13:C112,A27)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A3:C102,A27)</f>
+        <v>1</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A13:A112,A27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="e">
+        <f>COUNTIF(History!A3:A102,A27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
         <f>F27*100/E27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A118:C217,A27)</f>
+        <f>COUNTIF(History!A104:C203,A27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A118:A217,A27)</f>
+        <f>COUNTIF(History!A104:A203,A27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2" t="e">
@@ -10356,11 +12160,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A229:C328,A27)</f>
+        <f>COUNTIF(History!A206:C305,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A229:A328,A27)</f>
+        <f>COUNTIF(History!A206:A305,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -10368,52 +12172,52 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A329:C399,A27)</f>
+        <f>COUNTIF(History!A306:C399,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A329:A399,A27)</f>
+        <f>COUNTIF(History!A306:A399,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
         <f>O27*100/N27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="2">
-        <f>COUNTIF(History!A506:C528,A27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <f>COUNTIF(History!A506:A528,A27)</f>
-        <v>0</v>
+      <c r="Q27" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R27" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A27)</f>
+        <v>#REF!</v>
       </c>
       <c r="S27" s="2" t="e">
         <f>R27*100/Q27</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="e">
+      <c r="D28" s="2">
         <f>C28*100/B28</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A11:C110,A28)</f>
+        <f>COUNTIF(History!A195:C294,A28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A11:A110,A28)</f>
+        <f>COUNTIF(History!A195:A294,A28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="e">
@@ -10421,11 +12225,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A112:C211,A28)</f>
+        <f>COUNTIF(History!A295:C394,A28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A112:A211,A28)</f>
+        <f>COUNTIF(History!A295:A394,A28)</f>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="e">
@@ -10433,11 +12237,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A202:C301,A28)</f>
+        <f>COUNTIF(History!A395:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A202:A301,A28)</f>
+        <f>COUNTIF(History!A395:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -10445,52 +12249,52 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A302:C399,A28)</f>
+        <f>COUNTIF(History!A506:C594,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A302:A399,A28)</f>
+        <f>COUNTIF(History!A506:A594,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
         <f>O28*100/N28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R28" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A28)</f>
-        <v>#REF!</v>
+      <c r="Q28" s="2">
+        <f>COUNTIF(History!A595:C694,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <f>COUNTIF(History!A595:A694,A28)</f>
+        <v>0</v>
       </c>
       <c r="S28" s="2" t="e">
         <f>R28*100/Q28</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="e">
+      <c r="D29" s="2">
         <f>C29*100/B29</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A91:C190,A29)</f>
+        <f>COUNTIF(History!A7:C106,A29)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A91:A190,A29)</f>
+        <f>COUNTIF(History!A7:A106,A29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="e">
@@ -10498,11 +12302,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A191:C290,A29)</f>
+        <f>COUNTIF(History!A108:C207,A29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A191:A290,A29)</f>
+        <f>COUNTIF(History!A108:A207,A29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="e">
@@ -10510,45 +12314,45 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A288:C387,A29)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A205:C304,A29)</f>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A288:A387,A29)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="2" t="e">
+        <f>COUNTIF(History!A205:A304,A29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
         <f>L29*100/K29</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A388:C399,A29)</f>
+        <f>COUNTIF(History!A305:C399,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A388:A399,A29)</f>
+        <f>COUNTIF(History!A305:A399,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
         <f>O29*100/N29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C587,A29)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A587,A29)</f>
-        <v>0</v>
+      <c r="Q29" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A29)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R29" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A29)</f>
+        <v>#REF!</v>
       </c>
       <c r="S29" s="2" t="e">
         <f>R29*100/Q29</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
@@ -10563,11 +12367,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A72:C171,A30)</f>
+        <f>COUNTIF(History!A11:C110,A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A72:A171,A30)</f>
+        <f>COUNTIF(History!A11:A110,A30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="e">
@@ -10575,11 +12379,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A172:C271,A30)</f>
+        <f>COUNTIF(History!A112:C211,A30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A172:A271,A30)</f>
+        <f>COUNTIF(History!A112:A211,A30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="e">
@@ -10587,11 +12391,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A266:C365,A30)</f>
+        <f>COUNTIF(History!A202:C301,A30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A266:A365,A30)</f>
+        <f>COUNTIF(History!A202:A301,A30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="e">
@@ -10599,33 +12403,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A366:C399,A30)</f>
+        <f>COUNTIF(History!A302:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A366:A399,A30)</f>
+        <f>COUNTIF(History!A302:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
         <f>O30*100/N30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="2">
-        <f>COUNTIF(History!A506:C565,A30)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <f>COUNTIF(History!A506:A565,A30)</f>
-        <v>0</v>
+      <c r="Q30" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R30" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A30)</f>
+        <v>#REF!</v>
       </c>
       <c r="S30" s="2" t="e">
         <f>R30*100/Q30</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
@@ -10640,11 +12444,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="8">
-        <f>COUNTIF(History!A138:C237,A31)</f>
+        <f>COUNTIF(History!A91:C190,A31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>COUNTIF(History!A138:A237,A31)</f>
+        <f>COUNTIF(History!A91:A190,A31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2" t="e">
@@ -10652,11 +12456,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF(History!A238:C337,A31)</f>
+        <f>COUNTIF(History!A191:C290,A31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIF(History!A238:A337,A31)</f>
+        <f>COUNTIF(History!A191:A290,A31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="e">
@@ -10664,11 +12468,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="2">
-        <f>COUNTIF(History!A336:C399,A31)</f>
+        <f>COUNTIF(History!A288:C387,A31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>COUNTIF(History!A336:A399,A31)</f>
+        <f>COUNTIF(History!A288:A387,A31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="e">
@@ -10676,11 +12480,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="2">
-        <f>COUNTIF(History!A506:C535,A31)</f>
+        <f>COUNTIF(History!A388:C399,A31)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f>COUNTIF(History!A506:A535,A31)</f>
+        <f>COUNTIF(History!A388:A399,A31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="2" t="e">
@@ -10688,11 +12492,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="2">
-        <f>COUNTIF(History!A536:C635,A31)</f>
+        <f>COUNTIF(History!A506:C587,A31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>COUNTIF(History!A536:A635,A31)</f>
+        <f>COUNTIF(History!A506:A587,A31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2" t="e">
@@ -10702,7 +12506,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
@@ -10717,11 +12521,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="8">
-        <f>COUNTIF(History!A7:C106,A32)</f>
+        <f>COUNTIF(History!A72:C171,A32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f>COUNTIF(History!A7:A106,A32)</f>
+        <f>COUNTIF(History!A72:A171,A32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2" t="e">
@@ -10729,11 +12533,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="2">
-        <f>COUNTIF(History!A108:C207,A32)</f>
+        <f>COUNTIF(History!A172:C271,A32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>COUNTIF(History!A108:A207,A32)</f>
+        <f>COUNTIF(History!A172:A271,A32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="e">
@@ -10741,11 +12545,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A205:C304,A32)</f>
+        <f>COUNTIF(History!A266:C365,A32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A205:A304,A32)</f>
+        <f>COUNTIF(History!A266:A365,A32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="e">
@@ -10753,33 +12557,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A305:C399,A32)</f>
+        <f>COUNTIF(History!A366:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A305:A399,A32)</f>
+        <f>COUNTIF(History!A366:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
         <f>O32*100/N32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q32" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R32" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A32)</f>
-        <v>#REF!</v>
+      <c r="Q32" s="2">
+        <f>COUNTIF(History!A506:C565,A32)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <f>COUNTIF(History!A506:A565,A32)</f>
+        <v>0</v>
       </c>
       <c r="S32" s="2" t="e">
         <f>R32*100/Q32</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -10794,11 +12598,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A79:C178,A33)</f>
+        <f>COUNTIF(History!A138:C237,A33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A79:A178,A33)</f>
+        <f>COUNTIF(History!A138:A237,A33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="e">
@@ -10806,11 +12610,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A179:C278,A33)</f>
+        <f>COUNTIF(History!A238:C337,A33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A179:A278,A33)</f>
+        <f>COUNTIF(History!A238:A337,A33)</f>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="e">
@@ -10818,11 +12622,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A274:C373,A33)</f>
+        <f>COUNTIF(History!A336:C399,A33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A274:A373,A33)</f>
+        <f>COUNTIF(History!A336:A399,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="e">
@@ -10830,11 +12634,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A374:C399,A33)</f>
+        <f>COUNTIF(History!A506:C535,A33)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A374:A399,A33)</f>
+        <f>COUNTIF(History!A506:A535,A33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="2" t="e">
@@ -10842,11 +12646,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C573,A33)</f>
+        <f>COUNTIF(History!A536:C635,A33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A573,A33)</f>
+        <f>COUNTIF(History!A536:A635,A33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="e">
@@ -10856,7 +12660,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -10871,11 +12675,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="8">
-        <f>COUNTIF(History!A38:C137,A34)</f>
+        <f>COUNTIF(History!A79:C178,A34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>COUNTIF(History!A38:A137,A34)</f>
+        <f>COUNTIF(History!A79:A178,A34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2" t="e">
@@ -10883,11 +12687,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF(History!A138:C237,A34)</f>
+        <f>COUNTIF(History!A179:C278,A34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>COUNTIF(History!A138:A237,A34)</f>
+        <f>COUNTIF(History!A179:A278,A34)</f>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="e">
@@ -10895,11 +12699,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="2">
-        <f>COUNTIF(History!A254:C353,A34)</f>
+        <f>COUNTIF(History!A274:C373,A34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f>COUNTIF(History!A254:A353,A34)</f>
+        <f>COUNTIF(History!A274:A373,A34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="e">
@@ -10907,11 +12711,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="2">
-        <f>COUNTIF(History!A354:C399,A34)</f>
+        <f>COUNTIF(History!A374:C399,A34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f>COUNTIF(History!A354:A399,A34)</f>
+        <f>COUNTIF(History!A374:A399,A34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="2" t="e">
@@ -10919,11 +12723,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="2">
-        <f>COUNTIF(History!A506:C553,A34)</f>
+        <f>COUNTIF(History!A506:C573,A34)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>COUNTIF(History!A506:A553,A34)</f>
+        <f>COUNTIF(History!A506:A573,A34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="2" t="e">
@@ -10933,7 +12737,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -10948,11 +12752,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8">
-        <f>COUNTIF(History!A59:C158,A35)</f>
+        <f>COUNTIF(History!A38:C137,A35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <f>COUNTIF(History!A59:A158,A35)</f>
+        <f>COUNTIF(History!A38:A137,A35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2" t="e">
@@ -10960,11 +12764,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="2">
-        <f>COUNTIF(History!A159:C258,A35)</f>
+        <f>COUNTIF(History!A138:C237,A35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>COUNTIF(History!A159:A258,A35)</f>
+        <f>COUNTIF(History!A138:A237,A35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="e">
@@ -10972,11 +12776,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="2">
-        <f>COUNTIF(History!A250:C349,A35)</f>
+        <f>COUNTIF(History!A254:C353,A35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f>COUNTIF(History!A250:A349,A35)</f>
+        <f>COUNTIF(History!A254:A353,A35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="e">
@@ -10984,11 +12788,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="2">
-        <f>COUNTIF(History!A350:C399,A35)</f>
+        <f>COUNTIF(History!A354:C399,A35)</f>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f>COUNTIF(History!A350:A399,A35)</f>
+        <f>COUNTIF(History!A354:A399,A35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2" t="e">
@@ -10996,11 +12800,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="2">
-        <f>COUNTIF(History!A506:C549,A35)</f>
+        <f>COUNTIF(History!A506:C553,A35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>COUNTIF(History!A506:A549,A35)</f>
+        <f>COUNTIF(History!A506:A553,A35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="2" t="e">
@@ -11010,7 +12814,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
@@ -11025,11 +12829,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="8">
-        <f>COUNTIF(History!A176:C275,A36)</f>
+        <f>COUNTIF(History!A59:C158,A36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <f>COUNTIF(History!A176:A275,A36)</f>
+        <f>COUNTIF(History!A59:A158,A36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="2" t="e">
@@ -11037,11 +12841,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF(History!A276:C375,A36)</f>
+        <f>COUNTIF(History!A159:C258,A36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>COUNTIF(History!A276:A375,A36)</f>
+        <f>COUNTIF(History!A159:A258,A36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="e">
@@ -11049,11 +12853,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="2">
-        <f>COUNTIF(History!A376:C399,A36)</f>
+        <f>COUNTIF(History!A250:C349,A36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>COUNTIF(History!A376:A399,A36)</f>
+        <f>COUNTIF(History!A250:A349,A36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="e">
@@ -11061,11 +12865,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="2">
-        <f>COUNTIF(History!A506:C575,A36)</f>
+        <f>COUNTIF(History!A350:C399,A36)</f>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f>COUNTIF(History!A506:A575,A36)</f>
+        <f>COUNTIF(History!A350:A399,A36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="e">
@@ -11073,11 +12877,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2">
-        <f>COUNTIF(History!A576:C675,A36)</f>
+        <f>COUNTIF(History!A506:C549,A36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>COUNTIF(History!A576:A675,A36)</f>
+        <f>COUNTIF(History!A506:A549,A36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="2" t="e">
@@ -11087,7 +12891,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
@@ -11102,11 +12906,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="8">
-        <f>COUNTIF(History!A9:C108,A37)</f>
+        <f>COUNTIF(History!A176:C275,A37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f>COUNTIF(History!A9:A108,A37)</f>
+        <f>COUNTIF(History!A176:A275,A37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2" t="e">
@@ -11114,11 +12918,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF(History!A109:C208,A37)</f>
+        <f>COUNTIF(History!A276:C375,A37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>COUNTIF(History!A109:A208,A37)</f>
+        <f>COUNTIF(History!A276:A375,A37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="e">
@@ -11126,11 +12930,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="2">
-        <f>COUNTIF(History!A204:C303,A37)</f>
+        <f>COUNTIF(History!A376:C399,A37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>COUNTIF(History!A204:A303,A37)</f>
+        <f>COUNTIF(History!A376:A399,A37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="e">
@@ -11138,33 +12942,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2">
-        <f>COUNTIF(History!A304:C399,A37)</f>
+        <f>COUNTIF(History!A506:C575,A37)</f>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f>COUNTIF(History!A304:A399,A37)</f>
+        <f>COUNTIF(History!A506:A575,A37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="2" t="e">
         <f>O37*100/N37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A37)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R37" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A37)</f>
-        <v>#REF!</v>
+      <c r="Q37" s="2">
+        <f>COUNTIF(History!A576:C675,A37)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <f>COUNTIF(History!A576:A675,A37)</f>
+        <v>0</v>
       </c>
       <c r="S37" s="2" t="e">
         <f>R37*100/Q37</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
@@ -11179,11 +12983,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="8">
-        <f>COUNTIF(History!A46:C145,A38)</f>
+        <f>COUNTIF(History!A9:C108,A38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f>COUNTIF(History!A46:A145,A38)</f>
+        <f>COUNTIF(History!A9:A108,A38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="2" t="e">
@@ -11191,11 +12995,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF(History!A146:C245,A38)</f>
+        <f>COUNTIF(History!A109:C208,A38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>COUNTIF(History!A146:A245,A38)</f>
+        <f>COUNTIF(History!A109:A208,A38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="e">
@@ -11203,11 +13007,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="2">
-        <f>COUNTIF(History!A276:C375,A38)</f>
+        <f>COUNTIF(History!A204:C303,A38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f>COUNTIF(History!A276:A375,A38)</f>
+        <f>COUNTIF(History!A204:A303,A38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="e">
@@ -11215,33 +13019,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2">
-        <f>COUNTIF(History!A376:C399,A38)</f>
+        <f>COUNTIF(History!A304:C399,A38)</f>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>COUNTIF(History!A376:A399,A38)</f>
+        <f>COUNTIF(History!A304:A399,A38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="2" t="e">
         <f>O38*100/N38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q38" s="2">
-        <f>COUNTIF(History!A506:C575,A38)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <f>COUNTIF(History!A506:A575,A38)</f>
-        <v>0</v>
+      <c r="Q38" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A38)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R38" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A38)</f>
+        <v>#REF!</v>
       </c>
       <c r="S38" s="2" t="e">
         <f>R38*100/Q38</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -11256,11 +13060,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="8">
-        <f>COUNTIF(History!A14:C113,A39)</f>
+        <f>COUNTIF(History!A46:C145,A39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>COUNTIF(History!A14:A113,A39)</f>
+        <f>COUNTIF(History!A46:A145,A39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="e">
@@ -11268,11 +13072,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF(History!A111:C210,A39)</f>
+        <f>COUNTIF(History!A146:C245,A39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>COUNTIF(History!A111:A210,A39)</f>
+        <f>COUNTIF(History!A146:A245,A39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="e">
@@ -11280,11 +13084,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="2">
-        <f>COUNTIF(History!A212:C311,A39)</f>
+        <f>COUNTIF(History!A276:C375,A39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>COUNTIF(History!A212:A311,A39)</f>
+        <f>COUNTIF(History!A276:A375,A39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="e">
@@ -11292,11 +13096,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2">
-        <f>COUNTIF(History!A312:C399,A39)</f>
+        <f>COUNTIF(History!A376:C399,A39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f>COUNTIF(History!A312:A399,A39)</f>
+        <f>COUNTIF(History!A376:A399,A39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="2" t="e">
@@ -11304,11 +13108,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="2">
-        <f>COUNTIF(History!A506:C511,A39)</f>
+        <f>COUNTIF(History!A506:C575,A39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>COUNTIF(History!A506:A511,A39)</f>
+        <f>COUNTIF(History!A506:A575,A39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="2" t="e">
@@ -11318,7 +13122,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -11333,11 +13137,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="8">
-        <f>COUNTIF(History!A81:C180,A40)</f>
+        <f>COUNTIF(History!A14:C113,A40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>COUNTIF(History!A81:A180,A40)</f>
+        <f>COUNTIF(History!A14:A113,A40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="2" t="e">
@@ -11345,11 +13149,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="2">
-        <f>COUNTIF(History!A181:C280,A40)</f>
+        <f>COUNTIF(History!A111:C210,A40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>COUNTIF(History!A181:A280,A40)</f>
+        <f>COUNTIF(History!A111:A210,A40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="2" t="e">
@@ -11357,11 +13161,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="2">
-        <f>COUNTIF(History!A278:C377,A40)</f>
+        <f>COUNTIF(History!A212:C311,A40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>COUNTIF(History!A278:A377,A40)</f>
+        <f>COUNTIF(History!A212:A311,A40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="2" t="e">
@@ -11369,11 +13173,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2">
-        <f>COUNTIF(History!A378:C399,A40)</f>
+        <f>COUNTIF(History!A312:C399,A40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f>COUNTIF(History!A378:A399,A40)</f>
+        <f>COUNTIF(History!A312:A399,A40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="2" t="e">
@@ -11381,11 +13185,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="2">
-        <f>COUNTIF(History!A506:C577,A40)</f>
+        <f>COUNTIF(History!A506:C511,A40)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>COUNTIF(History!A506:A577,A40)</f>
+        <f>COUNTIF(History!A506:A511,A40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="2" t="e">
@@ -11395,7 +13199,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -11410,11 +13214,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="8">
-        <f>COUNTIF(History!A63:C162,A41)</f>
+        <f>COUNTIF(History!A81:C180,A41)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <f>COUNTIF(History!A63:A162,A41)</f>
+        <f>COUNTIF(History!A81:A180,A41)</f>
         <v>0</v>
       </c>
       <c r="G41" s="2" t="e">
@@ -11422,11 +13226,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF(History!A163:C262,A41)</f>
+        <f>COUNTIF(History!A181:C280,A41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>COUNTIF(History!A163:A262,A41)</f>
+        <f>COUNTIF(History!A181:A280,A41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2" t="e">
@@ -11434,11 +13238,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="2">
-        <f>COUNTIF(History!A256:C355,A41)</f>
+        <f>COUNTIF(History!A278:C377,A41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>COUNTIF(History!A256:A355,A41)</f>
+        <f>COUNTIF(History!A278:A377,A41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="e">
@@ -11446,11 +13250,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="2">
-        <f>COUNTIF(History!A356:C399,A41)</f>
+        <f>COUNTIF(History!A378:C399,A41)</f>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f>COUNTIF(History!A356:A399,A41)</f>
+        <f>COUNTIF(History!A378:A399,A41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="2" t="e">
@@ -11458,11 +13262,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="2">
-        <f>COUNTIF(History!A506:C555,A41)</f>
+        <f>COUNTIF(History!A506:C577,A41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>COUNTIF(History!A506:A555,A41)</f>
+        <f>COUNTIF(History!A506:A577,A41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="2" t="e">
@@ -11472,7 +13276,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -11487,11 +13291,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="8">
-        <f>COUNTIF(History!A22:C121,A42)</f>
+        <f>COUNTIF(History!A63:C162,A42)</f>
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <f>COUNTIF(History!A22:A121,A42)</f>
+        <f>COUNTIF(History!A63:A162,A42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="2" t="e">
@@ -11499,11 +13303,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF(History!A122:C221,A42)</f>
+        <f>COUNTIF(History!A163:C262,A42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>COUNTIF(History!A122:A221,A42)</f>
+        <f>COUNTIF(History!A163:A262,A42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2" t="e">
@@ -11511,11 +13315,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="2">
-        <f>COUNTIF(History!A253:C352,A42)</f>
+        <f>COUNTIF(History!A256:C355,A42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>COUNTIF(History!A253:A352,A42)</f>
+        <f>COUNTIF(History!A256:A355,A42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="e">
@@ -11523,11 +13327,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="2">
-        <f>COUNTIF(History!A353:C399,A42)</f>
+        <f>COUNTIF(History!A356:C399,A42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>COUNTIF(History!A353:A399,A42)</f>
+        <f>COUNTIF(History!A356:A399,A42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="2" t="e">
@@ -11535,11 +13339,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="2">
-        <f>COUNTIF(History!A506:C552,A42)</f>
+        <f>COUNTIF(History!A506:C555,A42)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>COUNTIF(History!A506:A552,A42)</f>
+        <f>COUNTIF(History!A506:A555,A42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="2" t="e">
@@ -11549,7 +13353,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
@@ -11564,11 +13368,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="8">
-        <f>COUNTIF(History!A42:C141,A43)</f>
+        <f>COUNTIF(History!A22:C121,A43)</f>
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <f>COUNTIF(History!A42:A141,A43)</f>
+        <f>COUNTIF(History!A22:A121,A43)</f>
         <v>0</v>
       </c>
       <c r="G43" s="2" t="e">
@@ -11576,11 +13380,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="2">
-        <f>COUNTIF(History!A142:C241,A43)</f>
+        <f>COUNTIF(History!A122:C221,A43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>COUNTIF(History!A142:A241,A43)</f>
+        <f>COUNTIF(History!A122:A221,A43)</f>
         <v>0</v>
       </c>
       <c r="J43" s="2" t="e">
@@ -11588,11 +13392,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="2">
-        <f>COUNTIF(History!A240:C339,A43)</f>
+        <f>COUNTIF(History!A253:C352,A43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>COUNTIF(History!A240:A339,A43)</f>
+        <f>COUNTIF(History!A253:A352,A43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="e">
@@ -11600,11 +13404,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="2">
-        <f>COUNTIF(History!A340:C399,A43)</f>
+        <f>COUNTIF(History!A353:C399,A43)</f>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f>COUNTIF(History!A340:A399,A43)</f>
+        <f>COUNTIF(History!A353:A399,A43)</f>
         <v>0</v>
       </c>
       <c r="P43" s="2" t="e">
@@ -11612,11 +13416,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="2">
-        <f>COUNTIF(History!A506:C539,A43)</f>
+        <f>COUNTIF(History!A506:C552,A43)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>COUNTIF(History!A506:A539,A43)</f>
+        <f>COUNTIF(History!A506:A552,A43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="2" t="e">
@@ -11626,7 +13430,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
@@ -11641,11 +13445,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="8">
-        <f>COUNTIF(History!A53:C152,A44)</f>
+        <f>COUNTIF(History!A42:C141,A44)</f>
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <f>COUNTIF(History!A53:A152,A44)</f>
+        <f>COUNTIF(History!A42:A141,A44)</f>
         <v>0</v>
       </c>
       <c r="G44" s="2" t="e">
@@ -11653,11 +13457,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="2">
-        <f>COUNTIF(History!A153:C252,A44)</f>
+        <f>COUNTIF(History!A142:C241,A44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>COUNTIF(History!A153:A252,A44)</f>
+        <f>COUNTIF(History!A142:A241,A44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="e">
@@ -11665,11 +13469,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="2">
-        <f>COUNTIF(History!A243:C342,A44)</f>
+        <f>COUNTIF(History!A240:C339,A44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>COUNTIF(History!A243:A342,A44)</f>
+        <f>COUNTIF(History!A240:A339,A44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="e">
@@ -11677,11 +13481,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="2">
-        <f>COUNTIF(History!A343:C399,A44)</f>
+        <f>COUNTIF(History!A340:C399,A44)</f>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f>COUNTIF(History!A343:A399,A44)</f>
+        <f>COUNTIF(History!A340:A399,A44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="2" t="e">
@@ -11689,11 +13493,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="2">
-        <f>COUNTIF(History!A506:C542,A44)</f>
+        <f>COUNTIF(History!A506:C539,A44)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>COUNTIF(History!A506:A542,A44)</f>
+        <f>COUNTIF(History!A506:A539,A44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="2" t="e">
@@ -11703,7 +13507,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -11718,11 +13522,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A220:C319,A45)</f>
+        <f>COUNTIF(History!A53:C152,A45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f>COUNTIF(History!A220:A319,A45)</f>
+        <f>COUNTIF(History!A53:A152,A45)</f>
         <v>0</v>
       </c>
       <c r="G45" s="2" t="e">
@@ -11730,11 +13534,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF(History!A320:C419,A45)</f>
+        <f>COUNTIF(History!A153:C252,A45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>COUNTIF(History!A320:A419,A45)</f>
+        <f>COUNTIF(History!A153:A252,A45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2" t="e">
@@ -11742,11 +13546,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A506:C519,A45)</f>
+        <f>COUNTIF(History!A243:C342,A45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A506:A519,A45)</f>
+        <f>COUNTIF(History!A243:A342,A45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="2" t="e">
@@ -11754,11 +13558,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A520:C619,A45)</f>
+        <f>COUNTIF(History!A343:C399,A45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A520:A619,A45)</f>
+        <f>COUNTIF(History!A343:A399,A45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="e">
@@ -11766,11 +13570,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A620:C719,A45)</f>
+        <f>COUNTIF(History!A506:C542,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A620:A719,A45)</f>
+        <f>COUNTIF(History!A506:A542,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -11780,7 +13584,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -11795,11 +13599,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A88:C187,A46)</f>
+        <f>COUNTIF(History!A220:C319,A46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A88:A187,A46)</f>
+        <f>COUNTIF(History!A220:A319,A46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2" t="e">
@@ -11807,11 +13611,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A188:C287,A46)</f>
+        <f>COUNTIF(History!A320:C419,A46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A188:A287,A46)</f>
+        <f>COUNTIF(History!A320:A419,A46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2" t="e">
@@ -11819,11 +13623,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A285:C384,A46)</f>
+        <f>COUNTIF(History!A506:C519,A46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A285:A384,A46)</f>
+        <f>COUNTIF(History!A506:A519,A46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="e">
@@ -11831,11 +13635,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="2">
-        <f>COUNTIF(History!A385:C399,A46)</f>
+        <f>COUNTIF(History!A520:C619,A46)</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f>COUNTIF(History!A385:A399,A46)</f>
+        <f>COUNTIF(History!A520:A619,A46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="2" t="e">
@@ -11843,11 +13647,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A506:C584,A46)</f>
+        <f>COUNTIF(History!A620:C719,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A506:A584,A46)</f>
+        <f>COUNTIF(History!A620:A719,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -11857,7 +13661,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -11872,11 +13676,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A94:C193,A47)</f>
+        <f>COUNTIF(History!A88:C187,A47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A94:A193,A47)</f>
+        <f>COUNTIF(History!A88:A187,A47)</f>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="e">
@@ -11884,11 +13688,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A194:C293,A47)</f>
+        <f>COUNTIF(History!A188:C287,A47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A194:A293,A47)</f>
+        <f>COUNTIF(History!A188:A287,A47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="2" t="e">
@@ -11896,11 +13700,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A291:C390,A47)</f>
+        <f>COUNTIF(History!A285:C384,A47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A291:A390,A47)</f>
+        <f>COUNTIF(History!A285:A384,A47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="e">
@@ -11908,11 +13712,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2">
-        <f>COUNTIF(History!A391:C399,A47)</f>
+        <f>COUNTIF(History!A385:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f>COUNTIF(History!A391:A399,A47)</f>
+        <f>COUNTIF(History!A385:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="2" t="e">
@@ -11920,11 +13724,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A506:C590,A47)</f>
+        <f>COUNTIF(History!A506:C584,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A506:A590,A47)</f>
+        <f>COUNTIF(History!A506:A584,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -11934,7 +13738,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
@@ -11949,11 +13753,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E48" s="8">
-        <f>COUNTIF(History!A37:C136,A48)</f>
+        <f>COUNTIF(History!A94:C193,A48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <f>COUNTIF(History!A37:A136,A48)</f>
+        <f>COUNTIF(History!A94:A193,A48)</f>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="e">
@@ -11961,11 +13765,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="2">
-        <f>COUNTIF(History!A137:C236,A48)</f>
+        <f>COUNTIF(History!A194:C293,A48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>COUNTIF(History!A137:A236,A48)</f>
+        <f>COUNTIF(History!A194:A293,A48)</f>
         <v>0</v>
       </c>
       <c r="J48" s="2" t="e">
@@ -11973,11 +13777,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="2">
-        <f>COUNTIF(History!A234:C333,A48)</f>
+        <f>COUNTIF(History!A291:C390,A48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <f>COUNTIF(History!A234:A333,A48)</f>
+        <f>COUNTIF(History!A291:A390,A48)</f>
         <v>0</v>
       </c>
       <c r="M48" s="2" t="e">
@@ -11985,11 +13789,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N48" s="2">
-        <f>COUNTIF(History!A334:C399,A48)</f>
+        <f>COUNTIF(History!A391:C399,A48)</f>
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f>COUNTIF(History!A334:A399,A48)</f>
+        <f>COUNTIF(History!A391:A399,A48)</f>
         <v>0</v>
       </c>
       <c r="P48" s="2" t="e">
@@ -11997,11 +13801,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="2">
-        <f>COUNTIF(History!A506:C533,A48)</f>
+        <f>COUNTIF(History!A506:C590,A48)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>COUNTIF(History!A506:A533,A48)</f>
+        <f>COUNTIF(History!A506:A590,A48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="2" t="e">
@@ -12011,7 +13815,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
@@ -12026,11 +13830,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E49" s="8">
-        <f>COUNTIF(History!A5:C104,A49)</f>
+        <f>COUNTIF(History!A37:C136,A49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="8">
-        <f>COUNTIF(History!A5:A104,A49)</f>
+        <f>COUNTIF(History!A37:A136,A49)</f>
         <v>0</v>
       </c>
       <c r="G49" s="2" t="e">
@@ -12038,11 +13842,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H49" s="2">
-        <f>COUNTIF(History!A106:C205,A49)</f>
+        <f>COUNTIF(History!A137:C236,A49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>COUNTIF(History!A106:A205,A49)</f>
+        <f>COUNTIF(History!A137:A236,A49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="2" t="e">
@@ -12050,11 +13854,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K49" s="2">
-        <f>COUNTIF(History!A209:C308,A49)</f>
+        <f>COUNTIF(History!A234:C333,A49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>COUNTIF(History!A209:A308,A49)</f>
+        <f>COUNTIF(History!A234:A333,A49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="2" t="e">
@@ -12062,11 +13866,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N49" s="2">
-        <f>COUNTIF(History!A309:C399,A49)</f>
+        <f>COUNTIF(History!A334:C399,A49)</f>
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <f>COUNTIF(History!A309:A399,A49)</f>
+        <f>COUNTIF(History!A334:A399,A49)</f>
         <v>0</v>
       </c>
       <c r="P49" s="2" t="e">
@@ -12074,11 +13878,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q49" s="2">
-        <f>COUNTIF(History!A506:C508,A49)</f>
+        <f>COUNTIF(History!A506:C533,A49)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>COUNTIF(History!A506:A508,A49)</f>
+        <f>COUNTIF(History!A506:A533,A49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="2" t="e">
@@ -12088,7 +13892,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -12103,11 +13907,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E50" s="8">
-        <f>COUNTIF(History!A82:C181,A50)</f>
+        <f>COUNTIF(History!A5:C104,A50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <f>COUNTIF(History!A82:A181,A50)</f>
+        <f>COUNTIF(History!A5:A104,A50)</f>
         <v>0</v>
       </c>
       <c r="G50" s="2" t="e">
@@ -12115,11 +13919,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNTIF(History!A182:C281,A50)</f>
+        <f>COUNTIF(History!A106:C205,A50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>COUNTIF(History!A182:A281,A50)</f>
+        <f>COUNTIF(History!A106:A205,A50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="e">
@@ -12127,11 +13931,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="2">
-        <f>COUNTIF(History!A279:C378,A50)</f>
+        <f>COUNTIF(History!A209:C308,A50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <f>COUNTIF(History!A279:A378,A50)</f>
+        <f>COUNTIF(History!A209:A308,A50)</f>
         <v>0</v>
       </c>
       <c r="M50" s="2" t="e">
@@ -12139,11 +13943,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N50" s="2">
-        <f>COUNTIF(History!A379:C399,A50)</f>
+        <f>COUNTIF(History!A309:C399,A50)</f>
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f>COUNTIF(History!A379:A399,A50)</f>
+        <f>COUNTIF(History!A309:A399,A50)</f>
         <v>0</v>
       </c>
       <c r="P50" s="2" t="e">
@@ -12151,11 +13955,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="2">
-        <f>COUNTIF(History!A506:C578,A50)</f>
+        <f>COUNTIF(History!A506:C508,A50)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>COUNTIF(History!A506:A578,A50)</f>
+        <f>COUNTIF(History!A506:A508,A50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="2" t="e">
@@ -12165,7 +13969,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
@@ -12180,11 +13984,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="8">
-        <f>COUNTIF(History!A80:C179,A51)</f>
+        <f>COUNTIF(History!A82:C181,A51)</f>
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <f>COUNTIF(History!A80:A179,A51)</f>
+        <f>COUNTIF(History!A82:A181,A51)</f>
         <v>0</v>
       </c>
       <c r="G51" s="2" t="e">
@@ -12192,11 +13996,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H51" s="2">
-        <f>COUNTIF(History!A180:C279,A51)</f>
+        <f>COUNTIF(History!A182:C281,A51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <f>COUNTIF(History!A180:A279,A51)</f>
+        <f>COUNTIF(History!A182:A281,A51)</f>
         <v>0</v>
       </c>
       <c r="J51" s="2" t="e">
@@ -12204,11 +14008,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K51" s="2">
-        <f>COUNTIF(History!A275:C374,A51)</f>
+        <f>COUNTIF(History!A279:C378,A51)</f>
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <f>COUNTIF(History!A275:A374,A51)</f>
+        <f>COUNTIF(History!A279:A378,A51)</f>
         <v>0</v>
       </c>
       <c r="M51" s="2" t="e">
@@ -12216,11 +14020,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N51" s="2">
-        <f>COUNTIF(History!A375:C399,A51)</f>
+        <f>COUNTIF(History!A379:C399,A51)</f>
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f>COUNTIF(History!A375:A399,A51)</f>
+        <f>COUNTIF(History!A379:A399,A51)</f>
         <v>0</v>
       </c>
       <c r="P51" s="2" t="e">
@@ -12228,11 +14032,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="2">
-        <f>COUNTIF(History!A506:C574,A51)</f>
+        <f>COUNTIF(History!A506:C578,A51)</f>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f>COUNTIF(History!A506:A574,A51)</f>
+        <f>COUNTIF(History!A506:A578,A51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="2" t="e">
@@ -12242,7 +14046,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -12257,11 +14061,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="8">
-        <f>COUNTIF(History!A29:C128,A52)</f>
+        <f>COUNTIF(History!A80:C179,A52)</f>
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <f>COUNTIF(History!A29:A128,A52)</f>
+        <f>COUNTIF(History!A80:A179,A52)</f>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="e">
@@ -12269,11 +14073,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="2">
-        <f>COUNTIF(History!A129:C228,A52)</f>
+        <f>COUNTIF(History!A180:C279,A52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>COUNTIF(History!A129:A228,A52)</f>
+        <f>COUNTIF(History!A180:A279,A52)</f>
         <v>0</v>
       </c>
       <c r="J52" s="2" t="e">
@@ -12281,11 +14085,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="2">
-        <f>COUNTIF(History!A228:C327,A52)</f>
+        <f>COUNTIF(History!A275:C374,A52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <f>COUNTIF(History!A228:A327,A52)</f>
+        <f>COUNTIF(History!A275:A374,A52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="2" t="e">
@@ -12293,11 +14097,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="2">
-        <f>COUNTIF(History!A328:C399,A52)</f>
+        <f>COUNTIF(History!A375:C399,A52)</f>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f>COUNTIF(History!A328:A399,A52)</f>
+        <f>COUNTIF(History!A375:A399,A52)</f>
         <v>0</v>
       </c>
       <c r="P52" s="2" t="e">
@@ -12305,11 +14109,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="2">
-        <f>COUNTIF(History!A506:C527,A52)</f>
+        <f>COUNTIF(History!A506:C574,A52)</f>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f>COUNTIF(History!A506:A527,A52)</f>
+        <f>COUNTIF(History!A506:A574,A52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="2" t="e">
@@ -12319,7 +14123,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
@@ -12334,11 +14138,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="8">
-        <f>COUNTIF(History!A19:C118,A53)</f>
+        <f>COUNTIF(History!A29:C128,A53)</f>
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <f>COUNTIF(History!A19:A118,A53)</f>
+        <f>COUNTIF(History!A29:A128,A53)</f>
         <v>0</v>
       </c>
       <c r="G53" s="2" t="e">
@@ -12346,11 +14150,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="2">
-        <f>COUNTIF(History!A115:C214,A53)</f>
+        <f>COUNTIF(History!A129:C228,A53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f>COUNTIF(History!A115:A214,A53)</f>
+        <f>COUNTIF(History!A129:A228,A53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="2" t="e">
@@ -12358,11 +14162,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K53" s="2">
-        <f>COUNTIF(History!A236:C335,A53)</f>
+        <f>COUNTIF(History!A228:C327,A53)</f>
         <v>0</v>
       </c>
       <c r="L53" s="2">
-        <f>COUNTIF(History!A236:A335,A53)</f>
+        <f>COUNTIF(History!A228:A327,A53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="2" t="e">
@@ -12370,11 +14174,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N53" s="2">
-        <f>COUNTIF(History!A336:C399,A53)</f>
+        <f>COUNTIF(History!A328:C399,A53)</f>
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f>COUNTIF(History!A336:A399,A53)</f>
+        <f>COUNTIF(History!A328:A399,A53)</f>
         <v>0</v>
       </c>
       <c r="P53" s="2" t="e">
@@ -12382,11 +14186,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="2">
-        <f>COUNTIF(History!A506:C535,A53)</f>
+        <f>COUNTIF(History!A506:C527,A53)</f>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f>COUNTIF(History!A506:A535,A53)</f>
+        <f>COUNTIF(History!A506:A527,A53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="2" t="e">
@@ -12396,7 +14200,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B54" s="8">
         <f>COUNTIF(History!A:C,A54)</f>
@@ -12411,11 +14215,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E54" s="8">
-        <f>COUNTIF(History!A41:C140,A54)</f>
+        <f>COUNTIF(History!A19:C118,A54)</f>
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <f>COUNTIF(History!A41:A140,A54)</f>
+        <f>COUNTIF(History!A19:A118,A54)</f>
         <v>0</v>
       </c>
       <c r="G54" s="2" t="e">
@@ -12423,11 +14227,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="2">
-        <f>COUNTIF(History!A141:C240,A54)</f>
+        <f>COUNTIF(History!A115:C214,A54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>COUNTIF(History!A141:A240,A54)</f>
+        <f>COUNTIF(History!A115:A214,A54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="2" t="e">
@@ -12435,11 +14239,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="2">
-        <f>COUNTIF(History!A347:C399,A54)</f>
+        <f>COUNTIF(History!A236:C335,A54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <f>COUNTIF(History!A347:A399,A54)</f>
+        <f>COUNTIF(History!A236:A335,A54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="2" t="e">
@@ -12447,11 +14251,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="2">
-        <f>COUNTIF(History!A506:C546,A54)</f>
+        <f>COUNTIF(History!A336:C399,A54)</f>
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <f>COUNTIF(History!A506:A546,A54)</f>
+        <f>COUNTIF(History!A336:A399,A54)</f>
         <v>0</v>
       </c>
       <c r="P54" s="2" t="e">
@@ -12459,11 +14263,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="2">
-        <f>COUNTIF(History!A547:C646,A54)</f>
+        <f>COUNTIF(History!A506:C535,A54)</f>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f>COUNTIF(History!A547:A646,A54)</f>
+        <f>COUNTIF(History!A506:A535,A54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="2" t="e">
@@ -12473,7 +14277,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B55" s="8">
         <f>COUNTIF(History!A:C,A55)</f>
@@ -12488,11 +14292,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E55" s="8">
-        <f>COUNTIF(History!A45:C144,A55)</f>
+        <f>COUNTIF(History!A41:C140,A55)</f>
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <f>COUNTIF(History!A45:A144,A55)</f>
+        <f>COUNTIF(History!A41:A140,A55)</f>
         <v>0</v>
       </c>
       <c r="G55" s="2" t="e">
@@ -12500,11 +14304,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="2">
-        <f>COUNTIF(History!A145:C244,A55)</f>
+        <f>COUNTIF(History!A141:C240,A55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>COUNTIF(History!A145:A244,A55)</f>
+        <f>COUNTIF(History!A141:A240,A55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="2" t="e">
@@ -12512,11 +14316,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K55" s="2">
-        <f>COUNTIF(History!A239:C338,A55)</f>
+        <f>COUNTIF(History!A347:C399,A55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <f>COUNTIF(History!A239:A338,A55)</f>
+        <f>COUNTIF(History!A347:A399,A55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="2" t="e">
@@ -12524,11 +14328,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N55" s="2">
-        <f>COUNTIF(History!A339:C399,A55)</f>
+        <f>COUNTIF(History!A506:C546,A55)</f>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f>COUNTIF(History!A339:A399,A55)</f>
+        <f>COUNTIF(History!A506:A546,A55)</f>
         <v>0</v>
       </c>
       <c r="P55" s="2" t="e">
@@ -12536,11 +14340,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="2">
-        <f>COUNTIF(History!A506:C538,A55)</f>
+        <f>COUNTIF(History!A547:C646,A55)</f>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f>COUNTIF(History!A506:A538,A55)</f>
+        <f>COUNTIF(History!A547:A646,A55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="2" t="e">
@@ -12550,7 +14354,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B56" s="8">
         <f>COUNTIF(History!A:C,A56)</f>
@@ -12565,11 +14369,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E56" s="8">
-        <f>COUNTIF(History!A18:C117,A56)</f>
+        <f>COUNTIF(History!A45:C144,A56)</f>
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <f>COUNTIF(History!A18:A117,A56)</f>
+        <f>COUNTIF(History!A45:A144,A56)</f>
         <v>0</v>
       </c>
       <c r="G56" s="2" t="e">
@@ -12577,11 +14381,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="2">
-        <f>COUNTIF(History!A120:C219,A56)</f>
+        <f>COUNTIF(History!A145:C244,A56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f>COUNTIF(History!A120:A219,A56)</f>
+        <f>COUNTIF(History!A145:A244,A56)</f>
         <v>0</v>
       </c>
       <c r="J56" s="2" t="e">
@@ -12589,11 +14393,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="2">
-        <f>COUNTIF(History!A216:C315,A56)</f>
+        <f>COUNTIF(History!A239:C338,A56)</f>
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <f>COUNTIF(History!A216:A315,A56)</f>
+        <f>COUNTIF(History!A239:A338,A56)</f>
         <v>0</v>
       </c>
       <c r="M56" s="2" t="e">
@@ -12601,11 +14405,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N56" s="2">
-        <f>COUNTIF(History!A316:C399,A56)</f>
+        <f>COUNTIF(History!A339:C399,A56)</f>
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <f>COUNTIF(History!A316:A399,A56)</f>
+        <f>COUNTIF(History!A339:A399,A56)</f>
         <v>0</v>
       </c>
       <c r="P56" s="2" t="e">
@@ -12613,11 +14417,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="2">
-        <f>COUNTIF(History!A506:C514,A56)</f>
+        <f>COUNTIF(History!A506:C538,A56)</f>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f>COUNTIF(History!A506:A514,A56)</f>
+        <f>COUNTIF(History!A506:A538,A56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="2" t="e">
@@ -12627,7 +14431,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B57" s="8">
         <f>COUNTIF(History!A:C,A57)</f>
@@ -12642,11 +14446,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E57" s="8">
-        <f>COUNTIF(History!A44:C143,A57)</f>
+        <f>COUNTIF(History!A18:C117,A57)</f>
         <v>0</v>
       </c>
       <c r="F57" s="8">
-        <f>COUNTIF(History!A44:A143,A57)</f>
+        <f>COUNTIF(History!A18:A117,A57)</f>
         <v>0</v>
       </c>
       <c r="G57" s="2" t="e">
@@ -12654,11 +14458,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H57" s="2">
-        <f>COUNTIF(History!A144:C243,A57)</f>
+        <f>COUNTIF(History!A120:C219,A57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f>COUNTIF(History!A144:A243,A57)</f>
+        <f>COUNTIF(History!A120:A219,A57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="2" t="e">
@@ -12666,11 +14470,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="2">
-        <f>COUNTIF(History!A237:C336,A57)</f>
+        <f>COUNTIF(History!A216:C315,A57)</f>
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <f>COUNTIF(History!A237:A336,A57)</f>
+        <f>COUNTIF(History!A216:A315,A57)</f>
         <v>0</v>
       </c>
       <c r="M57" s="2" t="e">
@@ -12678,11 +14482,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N57" s="2">
-        <f>COUNTIF(History!A337:C399,A57)</f>
+        <f>COUNTIF(History!A316:C399,A57)</f>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f>COUNTIF(History!A337:A399,A57)</f>
+        <f>COUNTIF(History!A316:A399,A57)</f>
         <v>0</v>
       </c>
       <c r="P57" s="2" t="e">
@@ -12690,11 +14494,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" s="2">
-        <f>COUNTIF(History!A506:C536,A57)</f>
+        <f>COUNTIF(History!A506:C514,A57)</f>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f>COUNTIF(History!A506:A536,A57)</f>
+        <f>COUNTIF(History!A506:A514,A57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="2" t="e">
@@ -12704,7 +14508,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
@@ -12719,11 +14523,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E58" s="8">
-        <f>COUNTIF(History!A36:C135,A58)</f>
+        <f>COUNTIF(History!A44:C143,A58)</f>
         <v>0</v>
       </c>
       <c r="F58" s="8">
-        <f>COUNTIF(History!A36:A135,A58)</f>
+        <f>COUNTIF(History!A44:A143,A58)</f>
         <v>0</v>
       </c>
       <c r="G58" s="2" t="e">
@@ -12731,11 +14535,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="2">
-        <f>COUNTIF(History!A136:C235,A58)</f>
+        <f>COUNTIF(History!A144:C243,A58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>COUNTIF(History!A136:A235,A58)</f>
+        <f>COUNTIF(History!A144:A243,A58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2" t="e">
@@ -12743,11 +14547,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="2">
-        <f>COUNTIF(History!A230:C329,A58)</f>
+        <f>COUNTIF(History!A237:C336,A58)</f>
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <f>COUNTIF(History!A230:A329,A58)</f>
+        <f>COUNTIF(History!A237:A336,A58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="2" t="e">
@@ -12755,11 +14559,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N58" s="2">
-        <f>COUNTIF(History!A330:C399,A58)</f>
+        <f>COUNTIF(History!A337:C399,A58)</f>
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f>COUNTIF(History!A330:A399,A58)</f>
+        <f>COUNTIF(History!A337:A399,A58)</f>
         <v>0</v>
       </c>
       <c r="P58" s="2" t="e">
@@ -12767,11 +14571,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="2">
-        <f>COUNTIF(History!A506:C529,A58)</f>
+        <f>COUNTIF(History!A506:C536,A58)</f>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f>COUNTIF(History!A506:A529,A58)</f>
+        <f>COUNTIF(History!A506:A536,A58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="2" t="e">
@@ -12781,7 +14585,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B59" s="8">
         <f>COUNTIF(History!A:C,A59)</f>
@@ -12796,11 +14600,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E59" s="8">
-        <f>COUNTIF(History!A114:C213,A59)</f>
+        <f>COUNTIF(History!A36:C135,A59)</f>
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <f>COUNTIF(History!A114:A213,A59)</f>
+        <f>COUNTIF(History!A36:A135,A59)</f>
         <v>0</v>
       </c>
       <c r="G59" s="2" t="e">
@@ -12808,11 +14612,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H59" s="2">
-        <f>COUNTIF(History!A214:C313,A59)</f>
+        <f>COUNTIF(History!A136:C235,A59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f>COUNTIF(History!A214:A313,A59)</f>
+        <f>COUNTIF(History!A136:A235,A59)</f>
         <v>0</v>
       </c>
       <c r="J59" s="2" t="e">
@@ -12820,11 +14624,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="2">
-        <f>COUNTIF(History!A312:C399,A59)</f>
+        <f>COUNTIF(History!A230:C329,A59)</f>
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <f>COUNTIF(History!A312:A399,A59)</f>
+        <f>COUNTIF(History!A230:A329,A59)</f>
         <v>0</v>
       </c>
       <c r="M59" s="2" t="e">
@@ -12832,11 +14636,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="2">
-        <f>COUNTIF(History!A506:C511,A59)</f>
+        <f>COUNTIF(History!A330:C399,A59)</f>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f>COUNTIF(History!A506:A511,A59)</f>
+        <f>COUNTIF(History!A330:A399,A59)</f>
         <v>0</v>
       </c>
       <c r="P59" s="2" t="e">
@@ -12844,11 +14648,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="2">
-        <f>COUNTIF(History!A512:C611,A59)</f>
+        <f>COUNTIF(History!A506:C529,A59)</f>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f>COUNTIF(History!A512:A611,A59)</f>
+        <f>COUNTIF(History!A506:A529,A59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="2" t="e">
@@ -12858,7 +14662,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B60" s="8">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -12873,11 +14677,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E60" s="8">
-        <f>COUNTIF(History!A48:C147,A60)</f>
+        <f>COUNTIF(History!A114:C213,A60)</f>
         <v>0</v>
       </c>
       <c r="F60" s="8">
-        <f>COUNTIF(History!A48:A147,A60)</f>
+        <f>COUNTIF(History!A114:A213,A60)</f>
         <v>0</v>
       </c>
       <c r="G60" s="2" t="e">
@@ -12885,11 +14689,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="2">
-        <f>COUNTIF(History!A148:C247,A60)</f>
+        <f>COUNTIF(History!A214:C313,A60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f>COUNTIF(History!A148:A247,A60)</f>
+        <f>COUNTIF(History!A214:A313,A60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2" t="e">
@@ -12897,11 +14701,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="2">
-        <f>COUNTIF(History!A246:C345,A60)</f>
+        <f>COUNTIF(History!A312:C399,A60)</f>
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <f>COUNTIF(History!A246:A345,A60)</f>
+        <f>COUNTIF(History!A312:A399,A60)</f>
         <v>0</v>
       </c>
       <c r="M60" s="2" t="e">
@@ -12909,11 +14713,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="2">
-        <f>COUNTIF(History!A346:C399,A60)</f>
+        <f>COUNTIF(History!A506:C511,A60)</f>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f>COUNTIF(History!A346:A399,A60)</f>
+        <f>COUNTIF(History!A506:A511,A60)</f>
         <v>0</v>
       </c>
       <c r="P60" s="2" t="e">
@@ -12921,11 +14725,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" s="2">
-        <f>COUNTIF(History!A506:C545,A60)</f>
+        <f>COUNTIF(History!A512:C611,A60)</f>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f>COUNTIF(History!A506:A545,A60)</f>
+        <f>COUNTIF(History!A512:A611,A60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="2" t="e">
@@ -12935,7 +14739,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B61" s="8">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -12950,11 +14754,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8">
-        <f>COUNTIF(History!A49:C148,A61)</f>
+        <f>COUNTIF(History!A48:C147,A61)</f>
         <v>0</v>
       </c>
       <c r="F61" s="8">
-        <f>COUNTIF(History!A49:A148,A61)</f>
+        <f>COUNTIF(History!A48:A147,A61)</f>
         <v>0</v>
       </c>
       <c r="G61" s="2" t="e">
@@ -12962,11 +14766,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="2">
-        <f>COUNTIF(History!A149:C248,A61)</f>
+        <f>COUNTIF(History!A148:C247,A61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f>COUNTIF(History!A149:A248,A61)</f>
+        <f>COUNTIF(History!A148:A247,A61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2" t="e">
@@ -12974,11 +14778,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="2">
-        <f>COUNTIF(History!A270:C369,A61)</f>
+        <f>COUNTIF(History!A246:C345,A61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <f>COUNTIF(History!A270:A369,A61)</f>
+        <f>COUNTIF(History!A246:A345,A61)</f>
         <v>0</v>
       </c>
       <c r="M61" s="2" t="e">
@@ -12986,11 +14790,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="2">
-        <f>COUNTIF(History!A370:C399,A61)</f>
+        <f>COUNTIF(History!A346:C399,A61)</f>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f>COUNTIF(History!A370:A399,A61)</f>
+        <f>COUNTIF(History!A346:A399,A61)</f>
         <v>0</v>
       </c>
       <c r="P61" s="2" t="e">
@@ -12998,11 +14802,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="2">
-        <f>COUNTIF(History!A506:C569,A61)</f>
+        <f>COUNTIF(History!A506:C545,A61)</f>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f>COUNTIF(History!A506:A569,A61)</f>
+        <f>COUNTIF(History!A506:A545,A61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="2" t="e">
@@ -13012,7 +14816,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B62" s="8">
         <f>COUNTIF(History!A:C,A62)</f>
@@ -13027,11 +14831,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8">
-        <f>COUNTIF(History!A27:C126,A62)</f>
+        <f>COUNTIF(History!A49:C148,A62)</f>
         <v>0</v>
       </c>
       <c r="F62" s="8">
-        <f>COUNTIF(History!A27:A126,A62)</f>
+        <f>COUNTIF(History!A49:A148,A62)</f>
         <v>0</v>
       </c>
       <c r="G62" s="2" t="e">
@@ -13039,11 +14843,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="2">
-        <f>COUNTIF(History!A127:C226,A62)</f>
+        <f>COUNTIF(History!A149:C248,A62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <f>COUNTIF(History!A127:A226,A62)</f>
+        <f>COUNTIF(History!A149:A248,A62)</f>
         <v>0</v>
       </c>
       <c r="J62" s="2" t="e">
@@ -13051,11 +14855,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="2">
-        <f>COUNTIF(History!A220:C319,A62)</f>
+        <f>COUNTIF(History!A270:C369,A62)</f>
         <v>0</v>
       </c>
       <c r="L62" s="2">
-        <f>COUNTIF(History!A220:A319,A62)</f>
+        <f>COUNTIF(History!A270:A369,A62)</f>
         <v>0</v>
       </c>
       <c r="M62" s="2" t="e">
@@ -13063,11 +14867,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="2">
-        <f>COUNTIF(History!A320:C399,A62)</f>
+        <f>COUNTIF(History!A370:C399,A62)</f>
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <f>COUNTIF(History!A320:A399,A62)</f>
+        <f>COUNTIF(History!A370:A399,A62)</f>
         <v>0</v>
       </c>
       <c r="P62" s="2" t="e">
@@ -13075,11 +14879,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="2">
-        <f>COUNTIF(History!A506:C519,A62)</f>
+        <f>COUNTIF(History!A506:C569,A62)</f>
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <f>COUNTIF(History!A506:A519,A62)</f>
+        <f>COUNTIF(History!A506:A569,A62)</f>
         <v>0</v>
       </c>
       <c r="S62" s="2" t="e">
@@ -13089,7 +14893,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B63" s="8">
         <f>COUNTIF(History!A:C,A63)</f>
@@ -13104,11 +14908,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="8">
-        <f>COUNTIF(History!A57:C156,A63)</f>
+        <f>COUNTIF(History!A27:C126,A63)</f>
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <f>COUNTIF(History!A57:A156,A63)</f>
+        <f>COUNTIF(History!A27:A126,A63)</f>
         <v>0</v>
       </c>
       <c r="G63" s="2" t="e">
@@ -13116,11 +14920,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="2">
-        <f>COUNTIF(History!A157:C256,A63)</f>
+        <f>COUNTIF(History!A127:C226,A63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <f>COUNTIF(History!A157:A256,A63)</f>
+        <f>COUNTIF(History!A127:A226,A63)</f>
         <v>0</v>
       </c>
       <c r="J63" s="2" t="e">
@@ -13128,11 +14932,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="2">
-        <f>COUNTIF(History!A248:C347,A63)</f>
+        <f>COUNTIF(History!A220:C319,A63)</f>
         <v>0</v>
       </c>
       <c r="L63" s="2">
-        <f>COUNTIF(History!A248:A347,A63)</f>
+        <f>COUNTIF(History!A220:A319,A63)</f>
         <v>0</v>
       </c>
       <c r="M63" s="2" t="e">
@@ -13140,11 +14944,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="2">
-        <f>COUNTIF(History!A348:C399,A63)</f>
+        <f>COUNTIF(History!A320:C399,A63)</f>
         <v>0</v>
       </c>
       <c r="O63" s="2">
-        <f>COUNTIF(History!A348:A399,A63)</f>
+        <f>COUNTIF(History!A320:A399,A63)</f>
         <v>0</v>
       </c>
       <c r="P63" s="2" t="e">
@@ -13152,11 +14956,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" s="2">
-        <f>COUNTIF(History!A506:C547,A63)</f>
+        <f>COUNTIF(History!A506:C519,A63)</f>
         <v>0</v>
       </c>
       <c r="R63" s="2">
-        <f>COUNTIF(History!A506:A547,A63)</f>
+        <f>COUNTIF(History!A506:A519,A63)</f>
         <v>0</v>
       </c>
       <c r="S63" s="2" t="e">
@@ -13166,7 +14970,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B64" s="8">
         <f>COUNTIF(History!A:C,A64)</f>
@@ -13181,11 +14985,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="8">
-        <f>COUNTIF(History!A28:C127,A64)</f>
+        <f>COUNTIF(History!A57:C156,A64)</f>
         <v>0</v>
       </c>
       <c r="F64" s="8">
-        <f>COUNTIF(History!A28:A127,A64)</f>
+        <f>COUNTIF(History!A57:A156,A64)</f>
         <v>0</v>
       </c>
       <c r="G64" s="2" t="e">
@@ -13193,11 +14997,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="2">
-        <f>COUNTIF(History!A128:C227,A64)</f>
+        <f>COUNTIF(History!A157:C256,A64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="2">
-        <f>COUNTIF(History!A128:A227,A64)</f>
+        <f>COUNTIF(History!A157:A256,A64)</f>
         <v>0</v>
       </c>
       <c r="J64" s="2" t="e">
@@ -13205,11 +15009,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K64" s="2">
-        <f>COUNTIF(History!A222:C321,A64)</f>
+        <f>COUNTIF(History!A248:C347,A64)</f>
         <v>0</v>
       </c>
       <c r="L64" s="2">
-        <f>COUNTIF(History!A222:A321,A64)</f>
+        <f>COUNTIF(History!A248:A347,A64)</f>
         <v>0</v>
       </c>
       <c r="M64" s="2" t="e">
@@ -13217,11 +15021,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N64" s="2">
-        <f>COUNTIF(History!A322:C399,A64)</f>
+        <f>COUNTIF(History!A348:C399,A64)</f>
         <v>0</v>
       </c>
       <c r="O64" s="2">
-        <f>COUNTIF(History!A322:A399,A64)</f>
+        <f>COUNTIF(History!A348:A399,A64)</f>
         <v>0</v>
       </c>
       <c r="P64" s="2" t="e">
@@ -13229,11 +15033,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q64" s="2">
-        <f>COUNTIF(History!A506:C521,A64)</f>
+        <f>COUNTIF(History!A506:C547,A64)</f>
         <v>0</v>
       </c>
       <c r="R64" s="2">
-        <f>COUNTIF(History!A506:A521,A64)</f>
+        <f>COUNTIF(History!A506:A547,A64)</f>
         <v>0</v>
       </c>
       <c r="S64" s="2" t="e">
@@ -13243,7 +15047,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B65" s="8">
         <f>COUNTIF(History!A:C,A65)</f>
@@ -13258,11 +15062,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E65" s="8">
-        <f>COUNTIF(History!A64:C163,A65)</f>
+        <f>COUNTIF(History!A28:C127,A65)</f>
         <v>0</v>
       </c>
       <c r="F65" s="8">
-        <f>COUNTIF(History!A64:A163,A65)</f>
+        <f>COUNTIF(History!A28:A127,A65)</f>
         <v>0</v>
       </c>
       <c r="G65" s="2" t="e">
@@ -13270,11 +15074,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="2">
-        <f>COUNTIF(History!A164:C263,A65)</f>
+        <f>COUNTIF(History!A128:C227,A65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <f>COUNTIF(History!A164:A263,A65)</f>
+        <f>COUNTIF(History!A128:A227,A65)</f>
         <v>0</v>
       </c>
       <c r="J65" s="2" t="e">
@@ -13282,11 +15086,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K65" s="2">
-        <f>COUNTIF(History!A257:C356,A65)</f>
+        <f>COUNTIF(History!A222:C321,A65)</f>
         <v>0</v>
       </c>
       <c r="L65" s="2">
-        <f>COUNTIF(History!A257:A356,A65)</f>
+        <f>COUNTIF(History!A222:A321,A65)</f>
         <v>0</v>
       </c>
       <c r="M65" s="2" t="e">
@@ -13294,11 +15098,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N65" s="2">
-        <f>COUNTIF(History!A357:C399,A65)</f>
+        <f>COUNTIF(History!A322:C399,A65)</f>
         <v>0</v>
       </c>
       <c r="O65" s="2">
-        <f>COUNTIF(History!A357:A399,A65)</f>
+        <f>COUNTIF(History!A322:A399,A65)</f>
         <v>0</v>
       </c>
       <c r="P65" s="2" t="e">
@@ -13306,11 +15110,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="2">
-        <f>COUNTIF(History!A506:C556,A65)</f>
+        <f>COUNTIF(History!A506:C521,A65)</f>
         <v>0</v>
       </c>
       <c r="R65" s="2">
-        <f>COUNTIF(History!A506:A556,A65)</f>
+        <f>COUNTIF(History!A506:A521,A65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="2" t="e">
@@ -13320,7 +15124,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B66" s="8">
         <f>COUNTIF(History!A:C,A66)</f>
@@ -13335,11 +15139,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E66" s="8">
-        <f>COUNTIF(History!A86:C185,A66)</f>
+        <f>COUNTIF(History!A64:C163,A66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="8">
-        <f>COUNTIF(History!A86:A185,A66)</f>
+        <f>COUNTIF(History!A64:A163,A66)</f>
         <v>0</v>
       </c>
       <c r="G66" s="2" t="e">
@@ -13347,11 +15151,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H66" s="2">
-        <f>COUNTIF(History!A186:C285,A66)</f>
+        <f>COUNTIF(History!A164:C263,A66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <f>COUNTIF(History!A186:A285,A66)</f>
+        <f>COUNTIF(History!A164:A263,A66)</f>
         <v>0</v>
       </c>
       <c r="J66" s="2" t="e">
@@ -13359,11 +15163,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K66" s="2">
-        <f>COUNTIF(History!A283:C382,A66)</f>
+        <f>COUNTIF(History!A257:C356,A66)</f>
         <v>0</v>
       </c>
       <c r="L66" s="2">
-        <f>COUNTIF(History!A283:A382,A66)</f>
+        <f>COUNTIF(History!A257:A356,A66)</f>
         <v>0</v>
       </c>
       <c r="M66" s="2" t="e">
@@ -13371,11 +15175,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N66" s="2">
-        <f>COUNTIF(History!A383:C399,A66)</f>
+        <f>COUNTIF(History!A357:C399,A66)</f>
         <v>0</v>
       </c>
       <c r="O66" s="2">
-        <f>COUNTIF(History!A383:A399,A66)</f>
+        <f>COUNTIF(History!A357:A399,A66)</f>
         <v>0</v>
       </c>
       <c r="P66" s="2" t="e">
@@ -13383,11 +15187,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="2">
-        <f>COUNTIF(History!A506:C582,A66)</f>
+        <f>COUNTIF(History!A506:C556,A66)</f>
         <v>0</v>
       </c>
       <c r="R66" s="2">
-        <f>COUNTIF(History!A506:A582,A66)</f>
+        <f>COUNTIF(History!A506:A556,A66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="2" t="e">
@@ -13397,7 +15201,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="B67" s="8">
         <f>COUNTIF(History!A:C,A67)</f>
@@ -13412,11 +15216,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E67" s="8">
-        <f>COUNTIF(History!A65:C164,A67)</f>
+        <f>COUNTIF(History!A86:C185,A67)</f>
         <v>0</v>
       </c>
       <c r="F67" s="8">
-        <f>COUNTIF(History!A65:A164,A67)</f>
+        <f>COUNTIF(History!A86:A185,A67)</f>
         <v>0</v>
       </c>
       <c r="G67" s="2" t="e">
@@ -13424,11 +15228,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="2">
-        <f>COUNTIF(History!A165:C264,A67)</f>
+        <f>COUNTIF(History!A186:C285,A67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="2">
-        <f>COUNTIF(History!A165:A264,A67)</f>
+        <f>COUNTIF(History!A186:A285,A67)</f>
         <v>0</v>
       </c>
       <c r="J67" s="2" t="e">
@@ -13436,11 +15240,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K67" s="2">
-        <f>COUNTIF(History!A258:C357,A67)</f>
+        <f>COUNTIF(History!A283:C382,A67)</f>
         <v>0</v>
       </c>
       <c r="L67" s="2">
-        <f>COUNTIF(History!A258:A357,A67)</f>
+        <f>COUNTIF(History!A283:A382,A67)</f>
         <v>0</v>
       </c>
       <c r="M67" s="2" t="e">
@@ -13448,11 +15252,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N67" s="2">
-        <f>COUNTIF(History!A358:C399,A67)</f>
+        <f>COUNTIF(History!A383:C399,A67)</f>
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <f>COUNTIF(History!A358:A399,A67)</f>
+        <f>COUNTIF(History!A383:A399,A67)</f>
         <v>0</v>
       </c>
       <c r="P67" s="2" t="e">
@@ -13460,11 +15264,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" s="2">
-        <f>COUNTIF(History!A506:C557,A67)</f>
+        <f>COUNTIF(History!A506:C582,A67)</f>
         <v>0</v>
       </c>
       <c r="R67" s="2">
-        <f>COUNTIF(History!A506:A557,A67)</f>
+        <f>COUNTIF(History!A506:A582,A67)</f>
         <v>0</v>
       </c>
       <c r="S67" s="2" t="e">
@@ -13474,7 +15278,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="B68" s="8">
         <f>COUNTIF(History!A:C,A68)</f>
@@ -13489,11 +15293,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E68" s="8">
-        <f>COUNTIF(History!A70:C169,A68)</f>
+        <f>COUNTIF(History!A65:C164,A68)</f>
         <v>0</v>
       </c>
       <c r="F68" s="8">
-        <f>COUNTIF(History!A70:A169,A68)</f>
+        <f>COUNTIF(History!A65:A164,A68)</f>
         <v>0</v>
       </c>
       <c r="G68" s="2" t="e">
@@ -13501,11 +15305,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="2">
-        <f>COUNTIF(History!A170:C269,A68)</f>
+        <f>COUNTIF(History!A165:C264,A68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <f>COUNTIF(History!A170:A269,A68)</f>
+        <f>COUNTIF(History!A165:A264,A68)</f>
         <v>0</v>
       </c>
       <c r="J68" s="2" t="e">
@@ -13513,11 +15317,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K68" s="2">
-        <f>COUNTIF(History!A264:C363,A68)</f>
+        <f>COUNTIF(History!A258:C357,A68)</f>
         <v>0</v>
       </c>
       <c r="L68" s="2">
-        <f>COUNTIF(History!A264:A363,A68)</f>
+        <f>COUNTIF(History!A258:A357,A68)</f>
         <v>0</v>
       </c>
       <c r="M68" s="2" t="e">
@@ -13525,11 +15329,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N68" s="2">
-        <f>COUNTIF(History!A364:C399,A68)</f>
+        <f>COUNTIF(History!A358:C399,A68)</f>
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <f>COUNTIF(History!A364:A399,A68)</f>
+        <f>COUNTIF(History!A358:A399,A68)</f>
         <v>0</v>
       </c>
       <c r="P68" s="2" t="e">
@@ -13537,11 +15341,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q68" s="2">
-        <f>COUNTIF(History!A506:C563,A68)</f>
+        <f>COUNTIF(History!A506:C557,A68)</f>
         <v>0</v>
       </c>
       <c r="R68" s="2">
-        <f>COUNTIF(History!A506:A563,A68)</f>
+        <f>COUNTIF(History!A506:A557,A68)</f>
         <v>0</v>
       </c>
       <c r="S68" s="2" t="e">
@@ -13551,7 +15355,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="B69" s="8">
         <f>COUNTIF(History!A:C,A69)</f>
@@ -13566,11 +15370,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E69" s="8">
-        <f>COUNTIF(History!A136:C235,A69)</f>
+        <f>COUNTIF(History!A70:C169,A69)</f>
         <v>0</v>
       </c>
       <c r="F69" s="8">
-        <f>COUNTIF(History!A136:A235,A69)</f>
+        <f>COUNTIF(History!A70:A169,A69)</f>
         <v>0</v>
       </c>
       <c r="G69" s="2" t="e">
@@ -13578,11 +15382,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="2">
-        <f>COUNTIF(History!A236:C335,A69)</f>
+        <f>COUNTIF(History!A170:C269,A69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="2">
-        <f>COUNTIF(History!A236:A335,A69)</f>
+        <f>COUNTIF(History!A170:A269,A69)</f>
         <v>0</v>
       </c>
       <c r="J69" s="2" t="e">
@@ -13590,11 +15394,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K69" s="2">
-        <f>COUNTIF(History!A334:C399,A69)</f>
+        <f>COUNTIF(History!A264:C363,A69)</f>
         <v>0</v>
       </c>
       <c r="L69" s="2">
-        <f>COUNTIF(History!A334:A399,A69)</f>
+        <f>COUNTIF(History!A264:A363,A69)</f>
         <v>0</v>
       </c>
       <c r="M69" s="2" t="e">
@@ -13602,11 +15406,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N69" s="2">
-        <f>COUNTIF(History!A506:C533,A69)</f>
+        <f>COUNTIF(History!A364:C399,A69)</f>
         <v>0</v>
       </c>
       <c r="O69" s="2">
-        <f>COUNTIF(History!A506:A533,A69)</f>
+        <f>COUNTIF(History!A364:A399,A69)</f>
         <v>0</v>
       </c>
       <c r="P69" s="2" t="e">
@@ -13614,11 +15418,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q69" s="2">
-        <f>COUNTIF(History!A534:C633,A69)</f>
+        <f>COUNTIF(History!A506:C563,A69)</f>
         <v>0</v>
       </c>
       <c r="R69" s="2">
-        <f>COUNTIF(History!A534:A633,A69)</f>
+        <f>COUNTIF(History!A506:A563,A69)</f>
         <v>0</v>
       </c>
       <c r="S69" s="2" t="e">
@@ -38545,7 +40349,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38564,139 +40368,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>dialga:43</v>
+        <v>dialga:63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>dialga:43,melmetal:20</v>
+        <v>dialga:63,melmetal:38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>dialga:43,melmetal:20,groudon:23</v>
+        <v>dialga:63,melmetal:38,groudon:47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0,palkia:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0,palkia:2,garchomp:1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0,palkia:2,garchomp:1,machamp:2</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0,palkia:2,garchomp:1,machamp:2,tyranitar:2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0,palkia:2,garchomp:1,machamp:2,tyranitar:2,mamoswine:0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0,conkeldurr:0</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0,palkia:2,garchomp:1,machamp:2,tyranitar:2,mamoswine:0,heatran:0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>dialga:43,melmetal:20,groudon:23,giratina_origin:31,mewtwo:11,kyogre:14,togekiss:16,dragonite:5,rhyperior:2,zekrom:0,giratina_altered:1,metagross:0,snorlax:2,landorus_incarnate:1,palkia:2,excadrill:0,machamp:2,mamoswine:0,regice:1,tyranitar:1,garchomp:0,conkeldurr:0,gardevoir:0</v>
+        <v>dialga:63,melmetal:38,groudon:47,giratina_origin:54,mewtwo:17,kyogre:20,togekiss:25,dragonite:9,rhyperior:4,giratina_altered:7,zekrom:1,metagross:0,landorus_incarnate:4,snorlax:3,excadrill:0,darkrai:0,palkia:2,garchomp:1,machamp:2,tyranitar:2,mamoswine:0,heatran:0,reshiram:0</v>
       </c>
     </row>
   </sheetData>
@@ -38710,7 +40514,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38726,133 +40530,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>dialga:124</v>
+        <v>dialga:208</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>dialga:124,melmetal:63</v>
+        <v>dialga:208,melmetal:117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>dialga:124,melmetal:63,groudon:61</v>
+        <v>dialga:208,melmetal:117,groudon:112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6,darkrai:5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6,darkrai:5,palkia:4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6,darkrai:5,palkia:4,garchomp:3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6,darkrai:5,palkia:4,garchomp:3,machamp:2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6,darkrai:5,palkia:4,garchomp:3,machamp:2,tyranitar:2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1,garchomp:1</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6,darkrai:5,palkia:4,garchomp:3,machamp:2,tyranitar:2,mamoswine:2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>dialga:124,melmetal:63,groudon:61,giratina_origin:59,mewtwo:48,kyogre:43,togekiss:34,dragonite:15,rhyperior:15,zekrom:11,giratina_altered:8,metagross:6,snorlax:5,landorus_incarnate:5,palkia:4,excadrill:4,machamp:2,mamoswine:2,regice:1,tyranitar:1,garchomp:1,conkeldurr:1</v>
+        <v>dialga:208,melmetal:117,groudon:112,giratina_origin:95,mewtwo:92,kyogre:64,togekiss:55,dragonite:29,rhyperior:23,giratina_altered:18,zekrom:13,metagross:13,landorus_incarnate:10,snorlax:8,excadrill:6,darkrai:5,palkia:4,garchomp:3,machamp:2,tyranitar:2,mamoswine:2,heatran:2</v>
       </c>
     </row>
   </sheetData>
@@ -38866,7 +40670,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38882,133 +40686,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>dialga:81</v>
+        <v>dialga:145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>dialga:81,melmetal:43</v>
+        <v>dialga:145,melmetal:79</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>dialga:81,melmetal:43,groudon:38</v>
+        <v>dialga:145,melmetal:79,groudon:65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6,darkrai:5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6,darkrai:5,palkia:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6,darkrai:5,palkia:2,garchomp:2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6,darkrai:5,palkia:2,garchomp:2,machamp:0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6,darkrai:5,palkia:2,garchomp:2,machamp:0,tyranitar:0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0,garchomp:1</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6,darkrai:5,palkia:2,garchomp:2,machamp:0,tyranitar:0,mamoswine:2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>dialga:81,melmetal:43,groudon:38,giratina_origin:28,mewtwo:37,kyogre:29,togekiss:18,dragonite:10,rhyperior:13,zekrom:11,giratina_altered:7,metagross:6,snorlax:3,landorus_incarnate:4,palkia:2,excadrill:4,machamp:0,mamoswine:2,regice:0,tyranitar:0,garchomp:1,conkeldurr:1</v>
+        <v>dialga:145,melmetal:79,groudon:65,giratina_origin:41,mewtwo:75,kyogre:44,togekiss:30,dragonite:20,rhyperior:19,giratina_altered:11,zekrom:12,metagross:13,landorus_incarnate:6,snorlax:5,excadrill:6,darkrai:5,palkia:2,garchomp:2,machamp:0,tyranitar:0,mamoswine:2,heatran:2</v>
       </c>
     </row>
   </sheetData>
